--- a/uk/northern_ireland/Weekly_Deaths.xlsx
+++ b/uk/northern_ireland/Weekly_Deaths.xlsx
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="526" uniqueCount="164">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="528" uniqueCount="166">
   <si>
     <t>Range</t>
   </si>
@@ -78,9 +78,6 @@
   </si>
   <si>
     <t>To meet user needs, NISRA publish timely but provisional counts of death registrations in Northern Ireland in our Weekly Deaths provisional dataset. Weekly totals are presented alongside a 5-year, weekly average as well as the minimum and maximum number of deaths for the same week over the last five years. To allow time for registration and processing, these figures are published 7 days after the week ends.</t>
-  </si>
-  <si>
-    <t>This report will be developed and more detail presented over coming weeks.</t>
   </si>
   <si>
     <t xml:space="preserve">The UK Statistics Authority has designated these statistics as National Statistics, in accordance with the Statistics and Registration Service Act 2007 and signifying compliance with the Code of Practice for Official Statistics. </t>
@@ -265,9 +262,6 @@
   </si>
   <si>
     <t>Differences between NISRA’s death registration figures and the Department of Health's  (DoH) Daily reports</t>
-  </si>
-  <si>
-    <t>Because of the coronavirus (COVID-19) pandemic, from 3rd April 2020, our weekly deaths release has been supplemented with the numbers of respiratory deaths (respiratory deaths include any death where Pneumonia, Bronchitis, Bronchiolitis or Influenza was mentioned anywhere on the death certificate); and deaths relating to COVID-19 (that is, where COVID-19 or suspected COVID-19 was mentioned anywhere on the death certificate, including in combination with other health conditions). The figures are presented by age group and sex.</t>
   </si>
   <si>
     <t>Week number</t>
@@ -709,43 +703,6 @@
   </si>
   <si>
     <t>However, by analysing the registration based data using the date the death occurred (rather than date of registration with the General Register Office), based on registrations received up to the Wednesday prior to publication a more up to date figure is provided and this is the most appropriate figure to use to understand additional deaths beyond those reported via the DoH’s daily bulletin. However it is also subject to ongoing change as not all deaths which occurred by 23rd October will have been registered at the time of publishing these statistics.</t>
-  </si>
-  <si>
-    <r>
-      <t>Deaths registered</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>1</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve"> each week in Northern Ireland, 2020/21</t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <u/>
-        <vertAlign val="superscript"/>
-        <sz val="10"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-      </rPr>
-      <t>P</t>
-    </r>
   </si>
   <si>
     <r>
@@ -1550,7 +1507,7 @@
     </r>
   </si>
   <si>
-    <t>Weekly deaths  - ending 19th February 2021</t>
+    <t>Weekly deaths  - ending 26th February 2021</t>
   </si>
   <si>
     <r>
@@ -1568,7 +1525,7 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> This data is based on the actual date of death, from those deaths registered by GRO up to 24th February 2021. </t>
+      <t xml:space="preserve"> This data is based on the actual date of death, from those deaths registered by GRO up to 3rd March 2021. </t>
     </r>
   </si>
   <si>
@@ -1587,7 +1544,110 @@
         <rFont val="Arial"/>
         <family val="2"/>
       </rPr>
-      <t xml:space="preserve"> This data is based on the actual date of death, from those deaths registered by GRO up to 24th February 2021.</t>
+      <t xml:space="preserve"> This data is based on the actual date of death, from those deaths registered by GRO up to 3rd March 2021.</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <t>Respiratory</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> deaths (including Covid-19) registered in week (2021</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <vertAlign val="superscript"/>
+        <sz val="8.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="8.5"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>)</t>
+    </r>
+  </si>
+  <si>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+      </rPr>
+      <t>²</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> Totals include any death where a respiratory condition (or Covid-19) was mentioned anywhere on the death certificate, as many include both</t>
+    </r>
+  </si>
+  <si>
+    <t>Because of the coronavirus (COVID-19) pandemic, from 3rd April 2020, our weekly deaths release has been supplemented with the numbers of respiratory deaths (respiratory deaths include any death where Pneumonia, Bronchitis, Bronchiolitis or Influenza was mentioned anywhere on the death certificate); and deaths relating to COVID-19 (that is, where COVID-19 or suspected COVID-19 was mentioned anywhere on the death certificate, including in combination with other health conditions). The figures are presented by age group and sex.</t>
+  </si>
+  <si>
+    <t>This report will be developed and more detail presented included as necessary</t>
+  </si>
+  <si>
+    <r>
+      <t>Deaths registered</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>1</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t xml:space="preserve"> each week in Northern Ireland, 2021</t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <u/>
+        <vertAlign val="superscript"/>
+        <sz val="10"/>
+        <rFont val="Arial"/>
+        <family val="2"/>
+      </rPr>
+      <t>P</t>
     </r>
   </si>
 </sst>
@@ -1604,7 +1664,7 @@
     <numFmt numFmtId="169" formatCode="#,##0.0"/>
     <numFmt numFmtId="170" formatCode="0.0%"/>
   </numFmts>
-  <fonts count="46" x14ac:knownFonts="1">
+  <fonts count="49" x14ac:knownFonts="1">
     <font>
       <sz val="10"/>
       <name val="Arial"/>
@@ -1896,6 +1956,25 @@
       <name val="Calibri"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="8.5"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+    </font>
+    <font>
+      <b/>
+      <vertAlign val="superscript"/>
+      <sz val="8.5"/>
+      <name val="Arial"/>
+      <family val="2"/>
+    </font>
   </fonts>
   <fills count="9">
     <fill>
@@ -1946,7 +2025,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="17">
+  <borders count="18">
     <border>
       <left/>
       <right/>
@@ -2144,6 +2223,17 @@
       <bottom style="thin">
         <color indexed="64"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
       <diagonal/>
     </border>
   </borders>
@@ -2380,7 +2470,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="25" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="266">
+  <cellXfs count="268">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="14" fontId="3" fillId="3" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1"/>
@@ -3029,6 +3119,12 @@
     <xf numFmtId="0" fontId="45" fillId="3" borderId="0" xfId="149" applyFont="1" applyFill="1" applyAlignment="1" applyProtection="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="9" fillId="6" borderId="17" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="46" fillId="6" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="210">
     <cellStyle name="Comma 10" xfId="1"/>
@@ -3297,6 +3393,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -3514,11 +3611,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331750088"/>
-        <c:axId val="331752048"/>
+        <c:axId val="406133168"/>
+        <c:axId val="406135912"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331750088"/>
+        <c:axId val="406133168"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="44211"/>
@@ -3549,6 +3646,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
@@ -3585,7 +3683,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331752048"/>
+        <c:crossAx val="406135912"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
@@ -3594,7 +3692,7 @@
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331752048"/>
+        <c:axId val="406135912"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -3640,7 +3738,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331750088"/>
+        <c:crossAx val="406133168"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3774,6 +3872,7 @@
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -4957,11 +5056,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331752832"/>
-        <c:axId val="331750480"/>
+        <c:axId val="406138264"/>
+        <c:axId val="406138656"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="331752832"/>
+        <c:axId val="406138264"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="-43460"/>
@@ -4992,6 +5091,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
@@ -5028,7 +5128,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331750480"/>
+        <c:crossAx val="406138656"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -5037,7 +5137,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="331750480"/>
+        <c:axId val="406138656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5083,7 +5183,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331752832"/>
+        <c:crossAx val="406138264"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -5211,12 +5311,13 @@
             </a:r>
             <a:r>
               <a:rPr lang="en-GB" baseline="0"/>
-              <a:t> to 19th February 2021</a:t>
+              <a:t> to 26th February 2021</a:t>
             </a:r>
             <a:endParaRPr lang="en-GB"/>
           </a:p>
         </c:rich>
       </c:tx>
+      <c:layout/>
       <c:overlay val="0"/>
       <c:spPr>
         <a:noFill/>
@@ -5281,10 +5382,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43840</c:v>
                 </c:pt>
@@ -5462,15 +5563,18 @@
                 <c:pt idx="58">
                   <c:v>44246</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>44253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$B$2:$B$60</c:f>
+              <c:f>Sheet1!$B$2:$B$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>395</c:v>
                 </c:pt>
@@ -5648,6 +5752,9 @@
                 <c:pt idx="58">
                   <c:v>352</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>351</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -5710,10 +5817,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43840</c:v>
                 </c:pt>
@@ -5891,15 +5998,18 @@
                 <c:pt idx="58">
                   <c:v>44246</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>44253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$C$2:$C$60</c:f>
+              <c:f>Sheet1!$C$2:$C$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>402.2</c:v>
                 </c:pt>
@@ -6077,6 +6187,9 @@
                 <c:pt idx="58">
                   <c:v>310.8</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>349</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6127,10 +6240,10 @@
           </c:marker>
           <c:cat>
             <c:numRef>
-              <c:f>Sheet1!$A$2:$A$60</c:f>
+              <c:f>Sheet1!$A$2:$A$61</c:f>
               <c:numCache>
                 <c:formatCode>m/d/yyyy</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0">
                   <c:v>43840</c:v>
                 </c:pt>
@@ -6308,15 +6421,18 @@
                 <c:pt idx="58">
                   <c:v>44246</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>44253</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>Sheet1!$D$2:$D$60</c:f>
+              <c:f>Sheet1!$D$2:$D$61</c:f>
               <c:numCache>
                 <c:formatCode>0</c:formatCode>
-                <c:ptCount val="59"/>
+                <c:ptCount val="60"/>
                 <c:pt idx="0" formatCode="General">
                   <c:v>0</c:v>
                 </c:pt>
@@ -6494,6 +6610,9 @@
                 <c:pt idx="58">
                   <c:v>78</c:v>
                 </c:pt>
+                <c:pt idx="59">
+                  <c:v>55</c:v>
+                </c:pt>
               </c:numCache>
             </c:numRef>
           </c:val>
@@ -6514,14 +6633,14 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="331748128"/>
-        <c:axId val="331751264"/>
+        <c:axId val="406139048"/>
+        <c:axId val="406132776"/>
       </c:lineChart>
       <c:dateAx>
-        <c:axId val="331748128"/>
+        <c:axId val="406139048"/>
         <c:scaling>
           <c:orientation val="minMax"/>
-          <c:max val="44246"/>
+          <c:max val="44253"/>
           <c:min val="43840"/>
         </c:scaling>
         <c:delete val="0"/>
@@ -6549,6 +6668,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="dd/mm" sourceLinked="0"/>
@@ -6585,16 +6705,16 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331751264"/>
+        <c:crossAx val="406132776"/>
         <c:crosses val="autoZero"/>
         <c:auto val="0"/>
         <c:lblOffset val="100"/>
         <c:baseTimeUnit val="days"/>
-        <c:majorUnit val="29"/>
+        <c:majorUnit val="24"/>
         <c:majorTimeUnit val="days"/>
       </c:dateAx>
       <c:valAx>
-        <c:axId val="331751264"/>
+        <c:axId val="406132776"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -6640,7 +6760,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="331748128"/>
+        <c:crossAx val="406139048"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -6740,8 +6860,8 @@
         <xdr:from>
           <xdr:col>1</xdr:col>
           <xdr:colOff>9658350</xdr:colOff>
-          <xdr:row>4</xdr:row>
-          <xdr:rowOff>647700</xdr:rowOff>
+          <xdr:row>5</xdr:row>
+          <xdr:rowOff>0</xdr:rowOff>
         </xdr:from>
         <xdr:to>
           <xdr:col>1</xdr:col>
@@ -7194,7 +7314,7 @@
     <row r="1" spans="1:3" ht="18" x14ac:dyDescent="0.25">
       <c r="A1" s="83"/>
       <c r="B1" s="85" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.2">
@@ -7204,13 +7324,13 @@
     <row r="3" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A3" s="83"/>
       <c r="B3" s="84" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="15" x14ac:dyDescent="0.2">
       <c r="A4" s="83"/>
       <c r="B4" s="84" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="15" x14ac:dyDescent="0.2">
@@ -7219,82 +7339,82 @@
     <row r="6" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A6"/>
       <c r="B6" s="88" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="C6" s="90" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
     </row>
     <row r="7" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A7"/>
       <c r="B7" s="88" t="s">
-        <v>69</v>
+        <v>67</v>
       </c>
       <c r="C7" s="89" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="8" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A8"/>
       <c r="B8" s="88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="C8" s="89" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
     </row>
     <row r="9" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A9"/>
       <c r="B9" s="88" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C9" s="90" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
     </row>
     <row r="10" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A10"/>
       <c r="B10" s="88" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="C10" s="90" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
     </row>
     <row r="11" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A11"/>
       <c r="B11" s="88" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
       <c r="C11" s="90" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
     </row>
     <row r="12" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A12"/>
       <c r="B12" s="88" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="C12" s="90" t="s">
-        <v>131</v>
+        <v>128</v>
       </c>
     </row>
     <row r="13" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A13"/>
       <c r="B13" s="88" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="C13" s="90" t="s">
-        <v>132</v>
+        <v>129</v>
       </c>
     </row>
     <row r="14" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A14"/>
       <c r="B14" s="88" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="C14" s="90" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="15" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
@@ -7305,10 +7425,10 @@
     <row r="16" spans="1:3" s="81" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A16"/>
       <c r="B16" s="88" t="s">
-        <v>138</v>
+        <v>135</v>
       </c>
       <c r="C16" s="90" t="s">
-        <v>139</v>
+        <v>136</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
@@ -7318,36 +7438,36 @@
     <row r="18" spans="1:5" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A18"/>
       <c r="B18" s="87" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="C18" s="86" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
     </row>
     <row r="19" spans="1:5" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A19"/>
       <c r="B19" s="87" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="C19" s="86" t="s">
-        <v>135</v>
+        <v>132</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="15" x14ac:dyDescent="0.2">
       <c r="B20" s="87" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C20" s="86" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
     </row>
     <row r="21" spans="1:5" s="82" customFormat="1" ht="15" x14ac:dyDescent="0.2">
       <c r="A21"/>
       <c r="B21" s="87" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C21" s="86" t="s">
-        <v>136</v>
+        <v>133</v>
       </c>
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2"/>
@@ -7421,12 +7541,12 @@
     </row>
     <row r="47" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B47" s="264" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
     </row>
     <row r="48" spans="2:3" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B48" s="265" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
     </row>
     <row r="49" x14ac:dyDescent="0.2"/>
@@ -7467,11 +7587,11 @@
   <sheetPr codeName="Sheet9">
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I17"/>
+  <dimension ref="A1:I18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I10" sqref="I10"/>
+      <selection pane="bottomLeft" activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="0" customHeight="1" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7490,12 +7610,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -7505,25 +7625,25 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="98" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="98" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E4" s="98" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="F4" s="98" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="G4" s="93" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="H4" s="91" t="s">
         <v>11</v>
@@ -7552,7 +7672,7 @@
         <v>1</v>
       </c>
       <c r="H5" s="24">
-        <f t="shared" ref="H5:H11" si="0">SUM(C5:G5)</f>
+        <f t="shared" ref="H5:H12" si="0">SUM(C5:G5)</f>
         <v>145</v>
       </c>
       <c r="I5" s="8"/>
@@ -7725,48 +7845,76 @@
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>36</v>
-      </c>
+    <row r="12" spans="1:9" s="256" customFormat="1" ht="12.75" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C12" s="94">
+        <v>43</v>
+      </c>
+      <c r="D12" s="94">
+        <v>7</v>
+      </c>
+      <c r="E12" s="94">
+        <v>1</v>
+      </c>
+      <c r="F12" s="94">
+        <v>4</v>
+      </c>
+      <c r="G12" s="94">
+        <v>0</v>
+      </c>
+      <c r="H12" s="24">
+        <f t="shared" si="0"/>
+        <v>55</v>
+      </c>
+      <c r="I12" s="8"/>
     </row>
     <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A14" s="127" t="s">
-        <v>93</v>
-      </c>
-      <c r="B14" s="127"/>
-      <c r="C14" s="127"/>
-      <c r="D14" s="127"/>
-      <c r="E14" s="127"/>
-      <c r="F14" s="127"/>
-      <c r="G14" s="127"/>
-      <c r="H14" s="127"/>
-      <c r="I14" s="127"/>
+        <v>29</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
     </row>
     <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>67</v>
-      </c>
+      <c r="A15" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B15" s="127"/>
+      <c r="C15" s="127"/>
+      <c r="D15" s="127"/>
+      <c r="E15" s="127"/>
+      <c r="F15" s="127"/>
+      <c r="G15" s="127"/>
+      <c r="H15" s="127"/>
+      <c r="I15" s="127"/>
     </row>
     <row r="16" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A16" s="16" t="s">
-        <v>66</v>
-      </c>
-    </row>
-    <row r="17" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
+        <v>65</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -7781,11 +7929,11 @@
   <sheetPr codeName="Sheet10">
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P75"/>
+  <dimension ref="A1:P76"/>
   <sheetViews>
     <sheetView showGridLines="0" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="F54" sqref="F54"/>
+      <selection pane="bottomLeft" activeCell="L42" sqref="L42"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -7809,7 +7957,7 @@
   <sheetData>
     <row r="1" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="40"/>
       <c r="C1" s="40"/>
@@ -7828,7 +7976,7 @@
     </row>
     <row r="2" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -7870,7 +8018,7 @@
       <c r="F4" s="246"/>
       <c r="G4" s="246"/>
       <c r="H4" s="246" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="246"/>
       <c r="J4" s="246"/>
@@ -7887,37 +8035,37 @@
         <v>4</v>
       </c>
       <c r="C5" s="139" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="139" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="139" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="139" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="139" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="139" t="s">
+      <c r="G5" s="139" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="139" t="s">
+      <c r="H5" s="139" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="139" t="s">
+      <c r="I5" s="139" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="139" t="s">
+      <c r="J5" s="139" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="139" t="s">
+      <c r="K5" s="139" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="139" t="s">
+      <c r="L5" s="139" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="139" t="s">
+      <c r="M5" s="141" t="s">
         <v>54</v>
-      </c>
-      <c r="L5" s="139" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="141" t="s">
-        <v>56</v>
       </c>
       <c r="N5" s="140" t="s">
         <v>11</v>
@@ -7931,40 +8079,40 @@
         <v>43910</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="7" spans="1:15" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -7975,40 +8123,40 @@
         <v>43917</v>
       </c>
       <c r="C7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="175" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:15" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -9929,7 +10077,7 @@
         <v>2</v>
       </c>
       <c r="N49" s="164">
-        <f t="shared" ref="N49:N54" si="2">SUM(C49:M49)</f>
+        <f t="shared" ref="N49:N55" si="2">SUM(C49:M49)</f>
         <v>23</v>
       </c>
       <c r="O49" s="33"/>
@@ -10162,29 +10310,55 @@
       </c>
       <c r="P54" s="256"/>
     </row>
-    <row r="55" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="170" t="s">
-        <v>108</v>
-      </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="168"/>
-      <c r="D55" s="168"/>
-      <c r="E55" s="168"/>
-      <c r="F55" s="168"/>
-      <c r="G55" s="168"/>
-      <c r="H55" s="168"/>
-      <c r="I55" s="168"/>
-      <c r="J55" s="168"/>
-      <c r="K55" s="168"/>
-      <c r="L55" s="168"/>
-      <c r="M55" s="168"/>
-      <c r="N55" s="169"/>
-      <c r="O55" s="217"/>
-      <c r="P55" s="7"/>
+    <row r="55" spans="1:16" s="255" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>8</v>
+      </c>
+      <c r="B55" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C55" s="142">
+        <v>0</v>
+      </c>
+      <c r="D55" s="142">
+        <v>1</v>
+      </c>
+      <c r="E55" s="142">
+        <v>0</v>
+      </c>
+      <c r="F55" s="142">
+        <v>1</v>
+      </c>
+      <c r="G55" s="142">
+        <v>0</v>
+      </c>
+      <c r="H55" s="142">
+        <v>2</v>
+      </c>
+      <c r="I55" s="142">
+        <v>0</v>
+      </c>
+      <c r="J55" s="142">
+        <v>0</v>
+      </c>
+      <c r="K55" s="142">
+        <v>1</v>
+      </c>
+      <c r="L55" s="142">
+        <v>1</v>
+      </c>
+      <c r="M55" s="142">
+        <v>1</v>
+      </c>
+      <c r="N55" s="164">
+        <f t="shared" si="2"/>
+        <v>7</v>
+      </c>
+      <c r="P55" s="256"/>
     </row>
     <row r="56" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A56" s="167" t="s">
-        <v>107</v>
+      <c r="A56" s="170" t="s">
+        <v>105</v>
       </c>
       <c r="B56" s="166"/>
       <c r="C56" s="168"/>
@@ -10204,7 +10378,7 @@
     </row>
     <row r="57" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="167" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="B57" s="166"/>
       <c r="C57" s="168"/>
@@ -10222,67 +10396,67 @@
       <c r="O57" s="217"/>
       <c r="P57" s="7"/>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A58" s="218"/>
-      <c r="B58" s="218"/>
-      <c r="C58" s="218"/>
-      <c r="D58" s="218"/>
-      <c r="E58" s="218"/>
-      <c r="F58" s="218"/>
-      <c r="G58" s="218"/>
-      <c r="H58" s="218"/>
-      <c r="I58" s="218"/>
-      <c r="J58" s="218"/>
-      <c r="K58" s="218"/>
-      <c r="L58" s="218"/>
-      <c r="M58" s="218"/>
-      <c r="N58" s="218"/>
-      <c r="O58" s="218"/>
+    <row r="58" spans="1:16" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="167" t="s">
+        <v>106</v>
+      </c>
+      <c r="B58" s="166"/>
+      <c r="C58" s="168"/>
+      <c r="D58" s="168"/>
+      <c r="E58" s="168"/>
+      <c r="F58" s="168"/>
+      <c r="G58" s="168"/>
+      <c r="H58" s="168"/>
+      <c r="I58" s="168"/>
+      <c r="J58" s="168"/>
+      <c r="K58" s="168"/>
+      <c r="L58" s="168"/>
+      <c r="M58" s="168"/>
+      <c r="N58" s="169"/>
+      <c r="O58" s="217"/>
       <c r="P58" s="7"/>
     </row>
-    <row r="59" spans="1:16" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="219" t="s">
-        <v>36</v>
-      </c>
-      <c r="B59" s="220"/>
-      <c r="C59" s="220"/>
-      <c r="D59" s="220"/>
-      <c r="E59" s="220"/>
-      <c r="F59" s="221"/>
-      <c r="G59" s="221"/>
-      <c r="H59" s="221"/>
-      <c r="I59" s="221"/>
-      <c r="J59" s="221"/>
-      <c r="K59" s="221"/>
-      <c r="L59" s="221"/>
-      <c r="M59" s="221"/>
-      <c r="N59" s="221"/>
-      <c r="O59" s="7"/>
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A59" s="218"/>
+      <c r="B59" s="218"/>
+      <c r="C59" s="218"/>
+      <c r="D59" s="218"/>
+      <c r="E59" s="218"/>
+      <c r="F59" s="218"/>
+      <c r="G59" s="218"/>
+      <c r="H59" s="218"/>
+      <c r="I59" s="218"/>
+      <c r="J59" s="218"/>
+      <c r="K59" s="218"/>
+      <c r="L59" s="218"/>
+      <c r="M59" s="218"/>
+      <c r="N59" s="218"/>
+      <c r="O59" s="218"/>
       <c r="P59" s="7"/>
     </row>
-    <row r="60" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A60" s="221" t="s">
-        <v>30</v>
-      </c>
-      <c r="B60" s="218"/>
-      <c r="C60" s="218"/>
-      <c r="D60" s="218"/>
-      <c r="E60" s="218"/>
-      <c r="F60" s="218"/>
-      <c r="G60" s="218"/>
-      <c r="H60" s="218"/>
-      <c r="I60" s="218"/>
-      <c r="J60" s="218"/>
-      <c r="K60" s="218"/>
-      <c r="L60" s="218"/>
-      <c r="M60" s="218"/>
-      <c r="N60" s="218"/>
-      <c r="O60" s="218"/>
+    <row r="60" spans="1:16" s="40" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="219" t="s">
+        <v>35</v>
+      </c>
+      <c r="B60" s="220"/>
+      <c r="C60" s="220"/>
+      <c r="D60" s="220"/>
+      <c r="E60" s="220"/>
+      <c r="F60" s="221"/>
+      <c r="G60" s="221"/>
+      <c r="H60" s="221"/>
+      <c r="I60" s="221"/>
+      <c r="J60" s="221"/>
+      <c r="K60" s="221"/>
+      <c r="L60" s="221"/>
+      <c r="M60" s="221"/>
+      <c r="N60" s="221"/>
+      <c r="O60" s="7"/>
       <c r="P60" s="7"/>
     </row>
     <row r="61" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A61" s="221" t="s">
-        <v>87</v>
+        <v>29</v>
       </c>
       <c r="B61" s="218"/>
       <c r="C61" s="218"/>
@@ -10302,7 +10476,7 @@
     </row>
     <row r="62" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A62" s="221" t="s">
-        <v>94</v>
+        <v>85</v>
       </c>
       <c r="B62" s="218"/>
       <c r="C62" s="218"/>
@@ -10320,9 +10494,9 @@
       <c r="O62" s="218"/>
       <c r="P62" s="7"/>
     </row>
-    <row r="63" spans="1:16" ht="13.5" x14ac:dyDescent="0.2">
-      <c r="A63" s="222" t="s">
-        <v>81</v>
+    <row r="63" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A63" s="221" t="s">
+        <v>92</v>
       </c>
       <c r="B63" s="218"/>
       <c r="C63" s="218"/>
@@ -10340,8 +10514,10 @@
       <c r="O63" s="218"/>
       <c r="P63" s="7"/>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A64" s="218"/>
+    <row r="64" spans="1:16" ht="13.5" x14ac:dyDescent="0.2">
+      <c r="A64" s="222" t="s">
+        <v>79</v>
+      </c>
       <c r="B64" s="218"/>
       <c r="C64" s="218"/>
       <c r="D64" s="218"/>
@@ -10556,6 +10732,24 @@
       <c r="O75" s="218"/>
       <c r="P75" s="7"/>
     </row>
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A76" s="218"/>
+      <c r="B76" s="218"/>
+      <c r="C76" s="218"/>
+      <c r="D76" s="218"/>
+      <c r="E76" s="218"/>
+      <c r="F76" s="218"/>
+      <c r="G76" s="218"/>
+      <c r="H76" s="218"/>
+      <c r="I76" s="218"/>
+      <c r="J76" s="218"/>
+      <c r="K76" s="218"/>
+      <c r="L76" s="218"/>
+      <c r="M76" s="218"/>
+      <c r="N76" s="218"/>
+      <c r="O76" s="218"/>
+      <c r="P76" s="7"/>
+    </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -10570,11 +10764,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:IK378"/>
+  <dimension ref="A1:IK385"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I340" sqref="I340"/>
+      <pane ySplit="4" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="G347" sqref="G347"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -10590,12 +10784,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="I2" s="79"/>
     </row>
@@ -10604,28 +10798,28 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="149" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="149" t="s">
+        <v>32</v>
+      </c>
+      <c r="D4" s="149" t="s">
+        <v>30</v>
+      </c>
+      <c r="E4" s="149" t="s">
         <v>33</v>
       </c>
-      <c r="D4" s="149" t="s">
-        <v>31</v>
-      </c>
-      <c r="E4" s="149" t="s">
-        <v>34</v>
-      </c>
       <c r="F4" s="149" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="110"/>
     </row>
@@ -18879,7 +19073,7 @@
         <v>0</v>
       </c>
       <c r="H288" s="13">
-        <f t="shared" ref="H288:H342" si="16">G288+H287</f>
+        <f t="shared" ref="H288:H349" si="16">G288+H287</f>
         <v>1745</v>
       </c>
       <c r="I288" s="79"/>
@@ -19252,7 +19446,7 @@
         <v>0</v>
       </c>
       <c r="G301" s="13">
-        <f t="shared" ref="G301:G342" si="18">SUM(B301:F301)</f>
+        <f t="shared" ref="G301:G349" si="18">SUM(B301:F301)</f>
         <v>0</v>
       </c>
       <c r="H301" s="13">
@@ -20276,7 +20470,7 @@
       </c>
       <c r="I336" s="79"/>
     </row>
-    <row r="337" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A337" s="108">
         <v>44241</v>
       </c>
@@ -20305,7 +20499,7 @@
       </c>
       <c r="I337" s="79"/>
     </row>
-    <row r="338" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A338" s="108">
         <v>44242</v>
       </c>
@@ -20334,7 +20528,7 @@
       </c>
       <c r="I338" s="79"/>
     </row>
-    <row r="339" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A339" s="108">
         <v>44243</v>
       </c>
@@ -20363,7 +20557,7 @@
       </c>
       <c r="I339" s="79"/>
     </row>
-    <row r="340" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A340" s="108">
         <v>44244</v>
       </c>
@@ -20392,7 +20586,7 @@
       </c>
       <c r="I340" s="79"/>
     </row>
-    <row r="341" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A341" s="108">
         <v>44245</v>
       </c>
@@ -20421,7 +20615,7 @@
       </c>
       <c r="I341" s="79"/>
     </row>
-    <row r="342" spans="1:245" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A342" s="108">
         <v>44246</v>
       </c>
@@ -20450,315 +20644,511 @@
       </c>
       <c r="I342" s="79"/>
     </row>
-    <row r="343" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A343" s="251" t="s">
-        <v>30</v>
-      </c>
-      <c r="B343" s="251"/>
-      <c r="C343" s="251"/>
-      <c r="D343" s="251"/>
-      <c r="E343" s="251"/>
-      <c r="F343" s="251"/>
-      <c r="G343" s="251"/>
-      <c r="H343" s="251"/>
+    <row r="343" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A343" s="108">
+        <v>44247</v>
+      </c>
+      <c r="B343" s="150">
+        <v>0</v>
+      </c>
+      <c r="C343" s="150">
+        <v>0</v>
+      </c>
+      <c r="D343" s="150">
+        <v>0</v>
+      </c>
+      <c r="E343" s="150">
+        <v>0</v>
+      </c>
+      <c r="F343" s="150">
+        <v>0</v>
+      </c>
+      <c r="G343" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H343" s="13">
+        <f t="shared" si="16"/>
+        <v>2751</v>
+      </c>
       <c r="I343" s="79"/>
     </row>
-    <row r="344" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A344" s="250" t="s">
-        <v>93</v>
-      </c>
-      <c r="B344" s="250"/>
-      <c r="C344" s="250"/>
-      <c r="D344" s="250"/>
-      <c r="E344" s="250"/>
-      <c r="F344" s="250"/>
-      <c r="G344" s="250"/>
-      <c r="H344" s="250"/>
+    <row r="344" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A344" s="108">
+        <v>44248</v>
+      </c>
+      <c r="B344" s="150">
+        <v>0</v>
+      </c>
+      <c r="C344" s="150">
+        <v>0</v>
+      </c>
+      <c r="D344" s="150">
+        <v>0</v>
+      </c>
+      <c r="E344" s="150">
+        <v>0</v>
+      </c>
+      <c r="F344" s="150">
+        <v>0</v>
+      </c>
+      <c r="G344" s="13">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="H344" s="13">
+        <f t="shared" si="16"/>
+        <v>2751</v>
+      </c>
       <c r="I344" s="79"/>
     </row>
-    <row r="345" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A345" s="250" t="s">
-        <v>67</v>
-      </c>
-      <c r="B345" s="250"/>
-      <c r="C345" s="250"/>
-      <c r="D345" s="250"/>
-      <c r="E345" s="250"/>
-      <c r="F345" s="250"/>
-      <c r="G345" s="250"/>
-      <c r="H345" s="250"/>
+    <row r="345" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A345" s="108">
+        <v>44249</v>
+      </c>
+      <c r="B345" s="150">
+        <v>10</v>
+      </c>
+      <c r="C345" s="150">
+        <v>3</v>
+      </c>
+      <c r="D345" s="150">
+        <v>0</v>
+      </c>
+      <c r="E345" s="150">
+        <v>1</v>
+      </c>
+      <c r="F345" s="150">
+        <v>0</v>
+      </c>
+      <c r="G345" s="13">
+        <f t="shared" si="18"/>
+        <v>14</v>
+      </c>
+      <c r="H345" s="13">
+        <f t="shared" si="16"/>
+        <v>2765</v>
+      </c>
       <c r="I345" s="79"/>
     </row>
-    <row r="346" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A346" s="250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B346" s="250"/>
-      <c r="C346" s="250"/>
-      <c r="D346" s="250"/>
-      <c r="E346" s="250"/>
-      <c r="F346" s="250"/>
-      <c r="G346" s="250"/>
-      <c r="H346" s="250"/>
+    <row r="346" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A346" s="108">
+        <v>44250</v>
+      </c>
+      <c r="B346" s="150">
+        <v>14</v>
+      </c>
+      <c r="C346" s="150">
+        <v>1</v>
+      </c>
+      <c r="D346" s="150">
+        <v>0</v>
+      </c>
+      <c r="E346" s="150">
+        <v>0</v>
+      </c>
+      <c r="F346" s="150">
+        <v>0</v>
+      </c>
+      <c r="G346" s="13">
+        <f t="shared" si="18"/>
+        <v>15</v>
+      </c>
+      <c r="H346" s="13">
+        <f t="shared" si="16"/>
+        <v>2780</v>
+      </c>
       <c r="I346" s="79"/>
-      <c r="K346" s="10"/>
-      <c r="L346" s="10"/>
-      <c r="M346" s="10"/>
-      <c r="N346" s="10"/>
-      <c r="O346" s="10"/>
-      <c r="P346" s="10"/>
-      <c r="Q346" s="10"/>
-      <c r="R346" s="10"/>
-      <c r="S346" s="10"/>
-      <c r="T346" s="10"/>
-      <c r="U346" s="10"/>
-      <c r="V346" s="10"/>
-      <c r="W346" s="10"/>
-      <c r="X346" s="10"/>
-      <c r="Y346" s="10"/>
-      <c r="Z346" s="10"/>
-      <c r="AA346" s="10"/>
-      <c r="AB346" s="10"/>
-      <c r="AC346" s="10"/>
-      <c r="AD346" s="10"/>
-      <c r="AE346" s="10"/>
-      <c r="AF346" s="10"/>
-      <c r="AG346" s="10"/>
-      <c r="AH346" s="10"/>
-      <c r="AI346" s="10"/>
-      <c r="AJ346" s="10"/>
-      <c r="AK346" s="10"/>
-      <c r="AL346" s="10"/>
-      <c r="AM346" s="10"/>
-      <c r="AN346" s="10"/>
-      <c r="AO346" s="10"/>
-      <c r="AP346" s="10"/>
-      <c r="AQ346" s="10"/>
-      <c r="AR346" s="10"/>
-      <c r="AS346" s="10"/>
-      <c r="AT346" s="10"/>
-      <c r="AU346" s="10"/>
-      <c r="AV346" s="10"/>
-      <c r="AW346" s="10"/>
-      <c r="AX346" s="10"/>
-      <c r="AY346" s="10"/>
-      <c r="AZ346" s="10"/>
-      <c r="BA346" s="10"/>
-      <c r="BB346" s="10"/>
-      <c r="BC346" s="10"/>
-      <c r="BD346" s="10"/>
-      <c r="BE346" s="10"/>
-      <c r="BF346" s="10"/>
-      <c r="BG346" s="10"/>
-      <c r="BH346" s="10"/>
-      <c r="BI346" s="10"/>
-      <c r="BJ346" s="10"/>
-      <c r="BK346" s="10"/>
-      <c r="BL346" s="10"/>
-      <c r="BM346" s="10"/>
-      <c r="BN346" s="10"/>
-      <c r="BO346" s="10"/>
-      <c r="BP346" s="10"/>
-      <c r="BQ346" s="10"/>
-      <c r="BR346" s="10"/>
-      <c r="BS346" s="10"/>
-      <c r="BT346" s="10"/>
-      <c r="BU346" s="10"/>
-      <c r="BV346" s="10"/>
-      <c r="BW346" s="10"/>
-      <c r="BX346" s="10"/>
-      <c r="BY346" s="10"/>
-      <c r="BZ346" s="10"/>
-      <c r="CA346" s="10"/>
-      <c r="CB346" s="10"/>
-      <c r="CC346" s="10"/>
-      <c r="CD346" s="10"/>
-      <c r="CE346" s="10"/>
-      <c r="CF346" s="10"/>
-      <c r="CG346" s="10"/>
-      <c r="CH346" s="10"/>
-      <c r="CI346" s="10"/>
-      <c r="CJ346" s="10"/>
-      <c r="CK346" s="10"/>
-      <c r="CL346" s="10"/>
-      <c r="CM346" s="10"/>
-      <c r="CN346" s="10"/>
-      <c r="CO346" s="10"/>
-      <c r="CP346" s="10"/>
-      <c r="CQ346" s="10"/>
-      <c r="CR346" s="10"/>
-      <c r="CS346" s="10"/>
-      <c r="CT346" s="10"/>
-      <c r="CU346" s="10"/>
-      <c r="CV346" s="10"/>
-      <c r="CW346" s="10"/>
-      <c r="CX346" s="10"/>
-      <c r="CY346" s="10"/>
-      <c r="CZ346" s="10"/>
-      <c r="DA346" s="10"/>
-      <c r="DB346" s="10"/>
-      <c r="DC346" s="10"/>
-      <c r="DD346" s="10"/>
-      <c r="DE346" s="10"/>
-      <c r="DF346" s="10"/>
-      <c r="DG346" s="10"/>
-      <c r="DH346" s="10"/>
-      <c r="DI346" s="10"/>
-      <c r="DJ346" s="10"/>
-      <c r="DK346" s="10"/>
-      <c r="DL346" s="10"/>
-      <c r="DM346" s="10"/>
-      <c r="DN346" s="10"/>
-      <c r="DO346" s="10"/>
-      <c r="DP346" s="10"/>
-      <c r="DQ346" s="10"/>
-      <c r="DR346" s="10"/>
-      <c r="DS346" s="10"/>
-      <c r="DT346" s="10"/>
-      <c r="DU346" s="10"/>
-      <c r="DV346" s="10"/>
-      <c r="DW346" s="10"/>
-      <c r="DX346" s="10"/>
-      <c r="DY346" s="10"/>
-      <c r="DZ346" s="10"/>
-      <c r="EA346" s="10"/>
-      <c r="EB346" s="10"/>
-      <c r="EC346" s="10"/>
-      <c r="ED346" s="10"/>
-      <c r="EE346" s="10"/>
-      <c r="EF346" s="10"/>
-      <c r="EG346" s="10"/>
-      <c r="EH346" s="10"/>
-      <c r="EI346" s="10"/>
-      <c r="EJ346" s="10"/>
-      <c r="EK346" s="10"/>
-      <c r="EL346" s="10"/>
-      <c r="EM346" s="10"/>
-      <c r="EN346" s="10"/>
-      <c r="EO346" s="10"/>
-      <c r="EP346" s="10"/>
-      <c r="EQ346" s="10"/>
-      <c r="ER346" s="10"/>
-      <c r="ES346" s="10"/>
-      <c r="ET346" s="10"/>
-      <c r="EU346" s="10"/>
-      <c r="EV346" s="10"/>
-      <c r="EW346" s="10"/>
-      <c r="EX346" s="10"/>
-      <c r="EY346" s="10"/>
-      <c r="EZ346" s="10"/>
-      <c r="FA346" s="10"/>
-      <c r="FB346" s="10"/>
-      <c r="FC346" s="10"/>
-      <c r="FD346" s="10"/>
-      <c r="FE346" s="10"/>
-      <c r="FF346" s="10"/>
-      <c r="FG346" s="10"/>
-      <c r="FH346" s="10"/>
-      <c r="FI346" s="10"/>
-      <c r="FJ346" s="10"/>
-      <c r="FK346" s="10"/>
-      <c r="FL346" s="10"/>
-      <c r="FM346" s="10"/>
-      <c r="FN346" s="10"/>
-      <c r="FO346" s="10"/>
-      <c r="FP346" s="10"/>
-      <c r="FQ346" s="10"/>
-      <c r="FR346" s="10"/>
-      <c r="FS346" s="10"/>
-      <c r="FT346" s="10"/>
-      <c r="FU346" s="10"/>
-      <c r="FV346" s="10"/>
-      <c r="FW346" s="10"/>
-      <c r="FX346" s="10"/>
-      <c r="FY346" s="10"/>
-      <c r="FZ346" s="10"/>
-      <c r="GA346" s="10"/>
-      <c r="GB346" s="10"/>
-      <c r="GC346" s="10"/>
-      <c r="GD346" s="10"/>
-      <c r="GE346" s="10"/>
-      <c r="GF346" s="10"/>
-      <c r="GG346" s="10"/>
-      <c r="GH346" s="10"/>
-      <c r="GI346" s="10"/>
-      <c r="GJ346" s="10"/>
-      <c r="GK346" s="10"/>
-      <c r="GL346" s="10"/>
-      <c r="GM346" s="10"/>
-      <c r="GN346" s="10"/>
-      <c r="GO346" s="10"/>
-      <c r="GP346" s="10"/>
-      <c r="GQ346" s="10"/>
-      <c r="GR346" s="10"/>
-      <c r="GS346" s="10"/>
-      <c r="GT346" s="10"/>
-      <c r="GU346" s="10"/>
-      <c r="GV346" s="10"/>
-      <c r="GW346" s="10"/>
-      <c r="GX346" s="10"/>
-      <c r="GY346" s="10"/>
-      <c r="GZ346" s="10"/>
-      <c r="HA346" s="10"/>
-      <c r="HB346" s="10"/>
-      <c r="HC346" s="10"/>
-      <c r="HD346" s="10"/>
-      <c r="HE346" s="10"/>
-      <c r="HF346" s="10"/>
-      <c r="HG346" s="10"/>
-      <c r="HH346" s="10"/>
-      <c r="HI346" s="10"/>
-      <c r="HJ346" s="10"/>
-      <c r="HK346" s="10"/>
-      <c r="HL346" s="10"/>
-      <c r="HM346" s="10"/>
-      <c r="HN346" s="10"/>
-      <c r="HO346" s="10"/>
-      <c r="HP346" s="10"/>
-      <c r="HQ346" s="10"/>
-      <c r="HR346" s="10"/>
-      <c r="HS346" s="10"/>
-      <c r="HT346" s="10"/>
-      <c r="HU346" s="10"/>
-      <c r="HV346" s="10"/>
-      <c r="HW346" s="10"/>
-      <c r="HX346" s="10"/>
-      <c r="HY346" s="10"/>
-      <c r="HZ346" s="10"/>
-      <c r="IA346" s="10"/>
-      <c r="IB346" s="10"/>
-      <c r="IC346" s="10"/>
-      <c r="ID346" s="10"/>
-      <c r="IE346" s="10"/>
-      <c r="IF346" s="10"/>
-      <c r="IG346" s="10"/>
-      <c r="IH346" s="10"/>
-      <c r="II346" s="10"/>
-      <c r="IJ346" s="10"/>
-      <c r="IK346" s="10"/>
-    </row>
-    <row r="347" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="348" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="349" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="350" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="351" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="353" x14ac:dyDescent="0.2"/>
-    <row r="354" x14ac:dyDescent="0.2"/>
-    <row r="355" x14ac:dyDescent="0.2"/>
-    <row r="356" x14ac:dyDescent="0.2"/>
-    <row r="357" x14ac:dyDescent="0.2"/>
-    <row r="358" x14ac:dyDescent="0.2"/>
-    <row r="359" x14ac:dyDescent="0.2"/>
-    <row r="360" x14ac:dyDescent="0.2"/>
-    <row r="361" x14ac:dyDescent="0.2"/>
-    <row r="362" x14ac:dyDescent="0.2"/>
-    <row r="363" x14ac:dyDescent="0.2"/>
-    <row r="364" x14ac:dyDescent="0.2"/>
-    <row r="365" x14ac:dyDescent="0.2"/>
-    <row r="366" x14ac:dyDescent="0.2"/>
-    <row r="367" x14ac:dyDescent="0.2"/>
-    <row r="368" x14ac:dyDescent="0.2"/>
+    </row>
+    <row r="347" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A347" s="108">
+        <v>44251</v>
+      </c>
+      <c r="B347" s="150">
+        <v>5</v>
+      </c>
+      <c r="C347" s="150">
+        <v>1</v>
+      </c>
+      <c r="D347" s="150">
+        <v>0</v>
+      </c>
+      <c r="E347" s="150">
+        <v>0</v>
+      </c>
+      <c r="F347" s="150">
+        <v>0</v>
+      </c>
+      <c r="G347" s="13">
+        <f t="shared" si="18"/>
+        <v>6</v>
+      </c>
+      <c r="H347" s="13">
+        <f t="shared" si="16"/>
+        <v>2786</v>
+      </c>
+      <c r="I347" s="79"/>
+    </row>
+    <row r="348" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A348" s="108">
+        <v>44252</v>
+      </c>
+      <c r="B348" s="150">
+        <v>9</v>
+      </c>
+      <c r="C348" s="150">
+        <v>2</v>
+      </c>
+      <c r="D348" s="150">
+        <v>0</v>
+      </c>
+      <c r="E348" s="150">
+        <v>0</v>
+      </c>
+      <c r="F348" s="150">
+        <v>0</v>
+      </c>
+      <c r="G348" s="13">
+        <f t="shared" si="18"/>
+        <v>11</v>
+      </c>
+      <c r="H348" s="13">
+        <f t="shared" si="16"/>
+        <v>2797</v>
+      </c>
+      <c r="I348" s="79"/>
+    </row>
+    <row r="349" spans="1:9" s="256" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A349" s="108">
+        <v>44253</v>
+      </c>
+      <c r="B349" s="150">
+        <v>5</v>
+      </c>
+      <c r="C349" s="150">
+        <v>0</v>
+      </c>
+      <c r="D349" s="150">
+        <v>1</v>
+      </c>
+      <c r="E349" s="150">
+        <v>3</v>
+      </c>
+      <c r="F349" s="150">
+        <v>0</v>
+      </c>
+      <c r="G349" s="13">
+        <f t="shared" si="18"/>
+        <v>9</v>
+      </c>
+      <c r="H349" s="13">
+        <f t="shared" si="16"/>
+        <v>2806</v>
+      </c>
+      <c r="I349" s="79"/>
+    </row>
+    <row r="350" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A350" s="251" t="s">
+        <v>29</v>
+      </c>
+      <c r="B350" s="251"/>
+      <c r="C350" s="251"/>
+      <c r="D350" s="251"/>
+      <c r="E350" s="251"/>
+      <c r="F350" s="251"/>
+      <c r="G350" s="251"/>
+      <c r="H350" s="251"/>
+      <c r="I350" s="79"/>
+    </row>
+    <row r="351" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A351" s="250" t="s">
+        <v>91</v>
+      </c>
+      <c r="B351" s="250"/>
+      <c r="C351" s="250"/>
+      <c r="D351" s="250"/>
+      <c r="E351" s="250"/>
+      <c r="F351" s="250"/>
+      <c r="G351" s="250"/>
+      <c r="H351" s="250"/>
+      <c r="I351" s="79"/>
+    </row>
+    <row r="352" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A352" s="250" t="s">
+        <v>65</v>
+      </c>
+      <c r="B352" s="250"/>
+      <c r="C352" s="250"/>
+      <c r="D352" s="250"/>
+      <c r="E352" s="250"/>
+      <c r="F352" s="250"/>
+      <c r="G352" s="250"/>
+      <c r="H352" s="250"/>
+      <c r="I352" s="79"/>
+    </row>
+    <row r="353" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A353" s="250" t="s">
+        <v>64</v>
+      </c>
+      <c r="B353" s="250"/>
+      <c r="C353" s="250"/>
+      <c r="D353" s="250"/>
+      <c r="E353" s="250"/>
+      <c r="F353" s="250"/>
+      <c r="G353" s="250"/>
+      <c r="H353" s="250"/>
+      <c r="I353" s="79"/>
+      <c r="K353" s="10"/>
+      <c r="L353" s="10"/>
+      <c r="M353" s="10"/>
+      <c r="N353" s="10"/>
+      <c r="O353" s="10"/>
+      <c r="P353" s="10"/>
+      <c r="Q353" s="10"/>
+      <c r="R353" s="10"/>
+      <c r="S353" s="10"/>
+      <c r="T353" s="10"/>
+      <c r="U353" s="10"/>
+      <c r="V353" s="10"/>
+      <c r="W353" s="10"/>
+      <c r="X353" s="10"/>
+      <c r="Y353" s="10"/>
+      <c r="Z353" s="10"/>
+      <c r="AA353" s="10"/>
+      <c r="AB353" s="10"/>
+      <c r="AC353" s="10"/>
+      <c r="AD353" s="10"/>
+      <c r="AE353" s="10"/>
+      <c r="AF353" s="10"/>
+      <c r="AG353" s="10"/>
+      <c r="AH353" s="10"/>
+      <c r="AI353" s="10"/>
+      <c r="AJ353" s="10"/>
+      <c r="AK353" s="10"/>
+      <c r="AL353" s="10"/>
+      <c r="AM353" s="10"/>
+      <c r="AN353" s="10"/>
+      <c r="AO353" s="10"/>
+      <c r="AP353" s="10"/>
+      <c r="AQ353" s="10"/>
+      <c r="AR353" s="10"/>
+      <c r="AS353" s="10"/>
+      <c r="AT353" s="10"/>
+      <c r="AU353" s="10"/>
+      <c r="AV353" s="10"/>
+      <c r="AW353" s="10"/>
+      <c r="AX353" s="10"/>
+      <c r="AY353" s="10"/>
+      <c r="AZ353" s="10"/>
+      <c r="BA353" s="10"/>
+      <c r="BB353" s="10"/>
+      <c r="BC353" s="10"/>
+      <c r="BD353" s="10"/>
+      <c r="BE353" s="10"/>
+      <c r="BF353" s="10"/>
+      <c r="BG353" s="10"/>
+      <c r="BH353" s="10"/>
+      <c r="BI353" s="10"/>
+      <c r="BJ353" s="10"/>
+      <c r="BK353" s="10"/>
+      <c r="BL353" s="10"/>
+      <c r="BM353" s="10"/>
+      <c r="BN353" s="10"/>
+      <c r="BO353" s="10"/>
+      <c r="BP353" s="10"/>
+      <c r="BQ353" s="10"/>
+      <c r="BR353" s="10"/>
+      <c r="BS353" s="10"/>
+      <c r="BT353" s="10"/>
+      <c r="BU353" s="10"/>
+      <c r="BV353" s="10"/>
+      <c r="BW353" s="10"/>
+      <c r="BX353" s="10"/>
+      <c r="BY353" s="10"/>
+      <c r="BZ353" s="10"/>
+      <c r="CA353" s="10"/>
+      <c r="CB353" s="10"/>
+      <c r="CC353" s="10"/>
+      <c r="CD353" s="10"/>
+      <c r="CE353" s="10"/>
+      <c r="CF353" s="10"/>
+      <c r="CG353" s="10"/>
+      <c r="CH353" s="10"/>
+      <c r="CI353" s="10"/>
+      <c r="CJ353" s="10"/>
+      <c r="CK353" s="10"/>
+      <c r="CL353" s="10"/>
+      <c r="CM353" s="10"/>
+      <c r="CN353" s="10"/>
+      <c r="CO353" s="10"/>
+      <c r="CP353" s="10"/>
+      <c r="CQ353" s="10"/>
+      <c r="CR353" s="10"/>
+      <c r="CS353" s="10"/>
+      <c r="CT353" s="10"/>
+      <c r="CU353" s="10"/>
+      <c r="CV353" s="10"/>
+      <c r="CW353" s="10"/>
+      <c r="CX353" s="10"/>
+      <c r="CY353" s="10"/>
+      <c r="CZ353" s="10"/>
+      <c r="DA353" s="10"/>
+      <c r="DB353" s="10"/>
+      <c r="DC353" s="10"/>
+      <c r="DD353" s="10"/>
+      <c r="DE353" s="10"/>
+      <c r="DF353" s="10"/>
+      <c r="DG353" s="10"/>
+      <c r="DH353" s="10"/>
+      <c r="DI353" s="10"/>
+      <c r="DJ353" s="10"/>
+      <c r="DK353" s="10"/>
+      <c r="DL353" s="10"/>
+      <c r="DM353" s="10"/>
+      <c r="DN353" s="10"/>
+      <c r="DO353" s="10"/>
+      <c r="DP353" s="10"/>
+      <c r="DQ353" s="10"/>
+      <c r="DR353" s="10"/>
+      <c r="DS353" s="10"/>
+      <c r="DT353" s="10"/>
+      <c r="DU353" s="10"/>
+      <c r="DV353" s="10"/>
+      <c r="DW353" s="10"/>
+      <c r="DX353" s="10"/>
+      <c r="DY353" s="10"/>
+      <c r="DZ353" s="10"/>
+      <c r="EA353" s="10"/>
+      <c r="EB353" s="10"/>
+      <c r="EC353" s="10"/>
+      <c r="ED353" s="10"/>
+      <c r="EE353" s="10"/>
+      <c r="EF353" s="10"/>
+      <c r="EG353" s="10"/>
+      <c r="EH353" s="10"/>
+      <c r="EI353" s="10"/>
+      <c r="EJ353" s="10"/>
+      <c r="EK353" s="10"/>
+      <c r="EL353" s="10"/>
+      <c r="EM353" s="10"/>
+      <c r="EN353" s="10"/>
+      <c r="EO353" s="10"/>
+      <c r="EP353" s="10"/>
+      <c r="EQ353" s="10"/>
+      <c r="ER353" s="10"/>
+      <c r="ES353" s="10"/>
+      <c r="ET353" s="10"/>
+      <c r="EU353" s="10"/>
+      <c r="EV353" s="10"/>
+      <c r="EW353" s="10"/>
+      <c r="EX353" s="10"/>
+      <c r="EY353" s="10"/>
+      <c r="EZ353" s="10"/>
+      <c r="FA353" s="10"/>
+      <c r="FB353" s="10"/>
+      <c r="FC353" s="10"/>
+      <c r="FD353" s="10"/>
+      <c r="FE353" s="10"/>
+      <c r="FF353" s="10"/>
+      <c r="FG353" s="10"/>
+      <c r="FH353" s="10"/>
+      <c r="FI353" s="10"/>
+      <c r="FJ353" s="10"/>
+      <c r="FK353" s="10"/>
+      <c r="FL353" s="10"/>
+      <c r="FM353" s="10"/>
+      <c r="FN353" s="10"/>
+      <c r="FO353" s="10"/>
+      <c r="FP353" s="10"/>
+      <c r="FQ353" s="10"/>
+      <c r="FR353" s="10"/>
+      <c r="FS353" s="10"/>
+      <c r="FT353" s="10"/>
+      <c r="FU353" s="10"/>
+      <c r="FV353" s="10"/>
+      <c r="FW353" s="10"/>
+      <c r="FX353" s="10"/>
+      <c r="FY353" s="10"/>
+      <c r="FZ353" s="10"/>
+      <c r="GA353" s="10"/>
+      <c r="GB353" s="10"/>
+      <c r="GC353" s="10"/>
+      <c r="GD353" s="10"/>
+      <c r="GE353" s="10"/>
+      <c r="GF353" s="10"/>
+      <c r="GG353" s="10"/>
+      <c r="GH353" s="10"/>
+      <c r="GI353" s="10"/>
+      <c r="GJ353" s="10"/>
+      <c r="GK353" s="10"/>
+      <c r="GL353" s="10"/>
+      <c r="GM353" s="10"/>
+      <c r="GN353" s="10"/>
+      <c r="GO353" s="10"/>
+      <c r="GP353" s="10"/>
+      <c r="GQ353" s="10"/>
+      <c r="GR353" s="10"/>
+      <c r="GS353" s="10"/>
+      <c r="GT353" s="10"/>
+      <c r="GU353" s="10"/>
+      <c r="GV353" s="10"/>
+      <c r="GW353" s="10"/>
+      <c r="GX353" s="10"/>
+      <c r="GY353" s="10"/>
+      <c r="GZ353" s="10"/>
+      <c r="HA353" s="10"/>
+      <c r="HB353" s="10"/>
+      <c r="HC353" s="10"/>
+      <c r="HD353" s="10"/>
+      <c r="HE353" s="10"/>
+      <c r="HF353" s="10"/>
+      <c r="HG353" s="10"/>
+      <c r="HH353" s="10"/>
+      <c r="HI353" s="10"/>
+      <c r="HJ353" s="10"/>
+      <c r="HK353" s="10"/>
+      <c r="HL353" s="10"/>
+      <c r="HM353" s="10"/>
+      <c r="HN353" s="10"/>
+      <c r="HO353" s="10"/>
+      <c r="HP353" s="10"/>
+      <c r="HQ353" s="10"/>
+      <c r="HR353" s="10"/>
+      <c r="HS353" s="10"/>
+      <c r="HT353" s="10"/>
+      <c r="HU353" s="10"/>
+      <c r="HV353" s="10"/>
+      <c r="HW353" s="10"/>
+      <c r="HX353" s="10"/>
+      <c r="HY353" s="10"/>
+      <c r="HZ353" s="10"/>
+      <c r="IA353" s="10"/>
+      <c r="IB353" s="10"/>
+      <c r="IC353" s="10"/>
+      <c r="ID353" s="10"/>
+      <c r="IE353" s="10"/>
+      <c r="IF353" s="10"/>
+      <c r="IG353" s="10"/>
+      <c r="IH353" s="10"/>
+      <c r="II353" s="10"/>
+      <c r="IJ353" s="10"/>
+      <c r="IK353" s="10"/>
+    </row>
+    <row r="354" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="355" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="356" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="357" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="358" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="360" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="362" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="363" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="364" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="365" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="366" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="367" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="368" spans="1:245" x14ac:dyDescent="0.2"/>
     <row r="369" x14ac:dyDescent="0.2"/>
     <row r="370" x14ac:dyDescent="0.2"/>
     <row r="371" x14ac:dyDescent="0.2"/>
@@ -20769,6 +21159,13 @@
     <row r="376" x14ac:dyDescent="0.2"/>
     <row r="377" x14ac:dyDescent="0.2"/>
     <row r="378" x14ac:dyDescent="0.2"/>
+    <row r="379" x14ac:dyDescent="0.2"/>
+    <row r="380" x14ac:dyDescent="0.2"/>
+    <row r="381" x14ac:dyDescent="0.2"/>
+    <row r="382" x14ac:dyDescent="0.2"/>
+    <row r="383" x14ac:dyDescent="0.2"/>
+    <row r="384" x14ac:dyDescent="0.2"/>
+    <row r="385" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -20784,7 +21181,7 @@
   </sheetPr>
   <dimension ref="A1:A26"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView topLeftCell="A5" workbookViewId="0">
       <selection activeCell="JD16" sqref="JD16"/>
     </sheetView>
   </sheetViews>
@@ -20797,7 +21194,7 @@
   <sheetData>
     <row r="1" spans="1:1" ht="12.75" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:1" ht="12.75" x14ac:dyDescent="0.2"/>
@@ -20836,10 +21233,10 @@
 
 <file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D60"/>
+  <dimension ref="A1:D61"/>
   <sheetViews>
     <sheetView topLeftCell="A37" workbookViewId="0">
-      <selection activeCell="B60" sqref="B60"/>
+      <selection activeCell="C63" sqref="C63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.7109375" defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
@@ -20856,13 +21253,13 @@
         <v>4</v>
       </c>
       <c r="B1" s="136" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
       <c r="C1" s="136" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="D1" s="136" t="s">
-        <v>142</v>
+        <v>139</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
@@ -21689,6 +22086,20 @@
       </c>
       <c r="D60" s="227">
         <v>78</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A61" s="225">
+        <v>44253</v>
+      </c>
+      <c r="B61" s="226">
+        <v>351</v>
+      </c>
+      <c r="C61" s="227">
+        <v>349</v>
+      </c>
+      <c r="D61" s="227">
+        <v>55</v>
       </c>
     </row>
   </sheetData>
@@ -21701,11 +22112,11 @@
   <sheetPr codeName="Sheet12">
     <tabColor rgb="FFCEDB29"/>
   </sheetPr>
-  <dimension ref="A1:G70"/>
+  <dimension ref="A1:G71"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A57" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C61" sqref="C61"/>
+      <selection pane="bottomLeft" activeCell="C56" sqref="C56"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -21720,14 +22131,14 @@
   <sheetData>
     <row r="1" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>103</v>
+        <v>100</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -21737,16 +22148,16 @@
     </row>
     <row r="4" spans="1:5" ht="49.5" x14ac:dyDescent="0.2">
       <c r="A4" s="26" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="28" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="103" t="s">
+        <v>26</v>
+      </c>
+      <c r="D4" s="103" t="s">
         <v>27</v>
-      </c>
-      <c r="D4" s="103" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="40" customFormat="1" x14ac:dyDescent="0.2">
@@ -21757,10 +22168,10 @@
         <v>43840</v>
       </c>
       <c r="C5" s="210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="210" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
@@ -21771,10 +22182,10 @@
         <v>43847</v>
       </c>
       <c r="C6" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="211" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="7"/>
     </row>
@@ -21786,10 +22197,10 @@
         <v>43854</v>
       </c>
       <c r="C7" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D7" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
@@ -21800,10 +22211,10 @@
         <v>43861</v>
       </c>
       <c r="C8" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D8" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
@@ -21814,10 +22225,10 @@
         <v>43868</v>
       </c>
       <c r="C9" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D9" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
@@ -21828,10 +22239,10 @@
         <v>43875</v>
       </c>
       <c r="C10" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D10" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
@@ -21842,10 +22253,10 @@
         <v>43882</v>
       </c>
       <c r="C11" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D11" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
@@ -21856,10 +22267,10 @@
         <v>43889</v>
       </c>
       <c r="C12" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D12" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
@@ -21870,10 +22281,10 @@
         <v>43896</v>
       </c>
       <c r="C13" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D13" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
@@ -21884,10 +22295,10 @@
         <v>43903</v>
       </c>
       <c r="C14" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D14" s="105" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
@@ -22598,7 +23009,7 @@
         <v>178</v>
       </c>
       <c r="D58" s="105">
-        <f t="shared" ref="D58:D63" si="5">D57+C58</f>
+        <f t="shared" ref="D58:D64" si="5">D57+C58</f>
         <v>2213</v>
       </c>
     </row>
@@ -22659,11 +23070,11 @@
       </c>
       <c r="C62" s="104">
         <f>'Table 11'!H52</f>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="D62" s="105">
         <f t="shared" si="5"/>
-        <v>2707</v>
+        <v>2708</v>
       </c>
     </row>
     <row r="63" spans="1:4" s="256" customFormat="1" x14ac:dyDescent="0.2">
@@ -22675,31 +23086,37 @@
       </c>
       <c r="C63" s="104">
         <f>'Table 11'!H53</f>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="D63" s="105">
         <f t="shared" si="5"/>
-        <v>2768</v>
-      </c>
-    </row>
-    <row r="64" spans="1:4" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A64" s="9" t="s">
-        <v>36</v>
+        <v>2772</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="13">
+        <v>8</v>
+      </c>
+      <c r="B64" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C64" s="104">
+        <f>'Table 11'!H54</f>
+        <v>44</v>
+      </c>
+      <c r="D64" s="105">
+        <f t="shared" si="5"/>
+        <v>2816</v>
       </c>
     </row>
     <row r="65" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A65" s="127" t="s">
-        <v>162</v>
-      </c>
-      <c r="B65" s="75"/>
-      <c r="C65" s="75"/>
-      <c r="D65" s="75"/>
-      <c r="E65" s="75"/>
-      <c r="F65" s="75"/>
-    </row>
-    <row r="66" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="9" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A66" s="127" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B66" s="75"/>
       <c r="C66" s="75"/>
@@ -22707,24 +23124,34 @@
       <c r="E66" s="75"/>
       <c r="F66" s="75"/>
     </row>
-    <row r="67" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:7" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A67" s="127" t="s">
-        <v>146</v>
-      </c>
-      <c r="B67" s="127"/>
-      <c r="C67" s="127"/>
-      <c r="D67" s="127"/>
-      <c r="E67" s="127"/>
-      <c r="F67" s="127"/>
-      <c r="G67" s="127"/>
-    </row>
-    <row r="68" spans="1:7" x14ac:dyDescent="0.2">
-      <c r="A68" s="40" t="s">
-        <v>147</v>
-      </c>
-    </row>
-    <row r="69" spans="1:7" x14ac:dyDescent="0.2"/>
+        <v>142</v>
+      </c>
+      <c r="B67" s="75"/>
+      <c r="C67" s="75"/>
+      <c r="D67" s="75"/>
+      <c r="E67" s="75"/>
+      <c r="F67" s="75"/>
+    </row>
+    <row r="68" spans="1:7" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A68" s="127" t="s">
+        <v>143</v>
+      </c>
+      <c r="B68" s="127"/>
+      <c r="C68" s="127"/>
+      <c r="D68" s="127"/>
+      <c r="E68" s="127"/>
+      <c r="F68" s="127"/>
+      <c r="G68" s="127"/>
+    </row>
+    <row r="69" spans="1:7" x14ac:dyDescent="0.2">
+      <c r="A69" s="40" t="s">
+        <v>144</v>
+      </c>
+    </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.2"/>
+    <row r="71" spans="1:7" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -22740,11 +23167,11 @@
     <tabColor rgb="FFCEDB29"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J92"/>
+  <dimension ref="A1:J93"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="93" zoomScaleNormal="93" zoomScaleSheetLayoutView="96" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A43" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C54" sqref="C54"/>
+      <pane ySplit="4" topLeftCell="A44" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F53" sqref="F53"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -22762,14 +23189,14 @@
   <sheetData>
     <row r="1" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>104</v>
+        <v>101</v>
       </c>
       <c r="B2" s="2"/>
       <c r="J2" s="40"/>
@@ -22786,25 +23213,25 @@
     </row>
     <row r="4" spans="1:10" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="91" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="92" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="103" t="s">
+        <v>32</v>
+      </c>
+      <c r="E4" s="103" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="103" t="s">
         <v>33</v>
       </c>
-      <c r="E4" s="103" t="s">
+      <c r="G4" s="106" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="103" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="106" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="91" t="s">
         <v>11</v>
@@ -24009,7 +24436,7 @@
         <v>0</v>
       </c>
       <c r="H47" s="24">
-        <f t="shared" ref="H47:H53" si="6">SUM(C47:G47)</f>
+        <f t="shared" ref="H47:H54" si="6">SUM(C47:G47)</f>
         <v>115</v>
       </c>
       <c r="I47" s="8"/>
@@ -24134,7 +24561,7 @@
         <v>44239</v>
       </c>
       <c r="C52" s="104">
-        <v>64</v>
+        <v>65</v>
       </c>
       <c r="D52" s="104">
         <v>7</v>
@@ -24150,7 +24577,7 @@
       </c>
       <c r="H52" s="24">
         <f t="shared" si="6"/>
-        <v>78</v>
+        <v>79</v>
       </c>
       <c r="I52" s="8"/>
     </row>
@@ -24162,7 +24589,7 @@
         <v>44246</v>
       </c>
       <c r="C53" s="104">
-        <v>51</v>
+        <v>54</v>
       </c>
       <c r="D53" s="104">
         <v>5</v>
@@ -24178,36 +24605,50 @@
       </c>
       <c r="H53" s="24">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>64</v>
       </c>
       <c r="I53" s="8"/>
     </row>
-    <row r="54" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E54" s="40"/>
-      <c r="F54" s="40"/>
-      <c r="G54" s="40"/>
-      <c r="J54" s="40"/>
+    <row r="54" spans="1:10" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>8</v>
+      </c>
+      <c r="B54" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C54" s="104">
+        <v>31</v>
+      </c>
+      <c r="D54" s="104">
+        <v>7</v>
+      </c>
+      <c r="E54" s="104">
+        <v>1</v>
+      </c>
+      <c r="F54" s="104">
+        <v>5</v>
+      </c>
+      <c r="G54" s="104">
+        <v>0</v>
+      </c>
+      <c r="H54" s="24">
+        <f t="shared" si="6"/>
+        <v>44</v>
+      </c>
+      <c r="I54" s="8"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="127" t="s">
-        <v>163</v>
-      </c>
-      <c r="B55" s="75"/>
-      <c r="C55" s="75"/>
-      <c r="D55" s="75"/>
-      <c r="E55" s="75"/>
-      <c r="F55" s="75"/>
-      <c r="G55" s="75"/>
-      <c r="H55" s="75"/>
-      <c r="I55" s="75"/>
+      <c r="A55" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="E55" s="40"/>
+      <c r="F55" s="40"/>
+      <c r="G55" s="40"/>
       <c r="J55" s="40"/>
     </row>
-    <row r="56" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="127" t="s">
-        <v>145</v>
+        <v>160</v>
       </c>
       <c r="B56" s="75"/>
       <c r="C56" s="75"/>
@@ -24217,35 +24658,46 @@
       <c r="G56" s="75"/>
       <c r="H56" s="75"/>
       <c r="I56" s="75"/>
-    </row>
-    <row r="57" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="J56" s="40"/>
+    </row>
+    <row r="57" spans="1:10" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A57" s="127" t="s">
-        <v>93</v>
-      </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="40"/>
+        <v>142</v>
+      </c>
+      <c r="B57" s="75"/>
+      <c r="C57" s="75"/>
+      <c r="D57" s="75"/>
+      <c r="E57" s="75"/>
+      <c r="F57" s="75"/>
+      <c r="G57" s="75"/>
+      <c r="H57" s="75"/>
+      <c r="I57" s="75"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="16" t="s">
-        <v>35</v>
-      </c>
+      <c r="A58" s="127" t="s">
+        <v>91</v>
+      </c>
+      <c r="B58" s="127"/>
+      <c r="C58" s="127"/>
+      <c r="D58" s="127"/>
+      <c r="E58" s="127"/>
+      <c r="F58" s="127"/>
+      <c r="G58" s="127"/>
+      <c r="H58" s="127"/>
+      <c r="I58" s="127"/>
       <c r="J58" s="40"/>
     </row>
-    <row r="59" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="16" t="s">
+        <v>34</v>
+      </c>
       <c r="J59" s="40"/>
     </row>
-    <row r="60" spans="1:10" ht="15" x14ac:dyDescent="0.25">
-      <c r="B60" s="27"/>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.2">
       <c r="J60" s="40"/>
     </row>
-    <row r="61" spans="1:10" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:10" ht="15" x14ac:dyDescent="0.25">
+      <c r="B61" s="27"/>
       <c r="J61" s="40"/>
     </row>
     <row r="62" spans="1:10" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
@@ -24338,7 +24790,10 @@
     <row r="91" spans="10:10" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="J91" s="40"/>
     </row>
-    <row r="92" spans="10:10" x14ac:dyDescent="0.2"/>
+    <row r="92" spans="10:10" ht="12.6" hidden="1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="J92" s="40"/>
+    </row>
+    <row r="93" spans="10:10" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -24353,11 +24808,11 @@
   <sheetPr codeName="Sheet14">
     <tabColor rgb="FFCEDB29"/>
   </sheetPr>
-  <dimension ref="A1:I62"/>
+  <dimension ref="A1:I63"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A47" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="H54" sqref="H54"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="4" topLeftCell="A45" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C5" sqref="C5:D54"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -24370,14 +24825,14 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B1" s="10"/>
       <c r="C1" s="41"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>105</v>
+        <v>102</v>
       </c>
       <c r="B2" s="2"/>
       <c r="C2" s="41"/>
@@ -24389,25 +24844,25 @@
     </row>
     <row r="4" spans="1:8" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="120" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="121" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="103" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="D4" s="103" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="E4" s="103" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="F4" s="120" t="s">
         <v>11</v>
       </c>
       <c r="G4" s="120" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="5" spans="1:8" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -24418,19 +24873,19 @@
         <v>43910</v>
       </c>
       <c r="C5" s="104" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D5" s="123" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E5" s="122" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F5" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G5" s="24" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
     </row>
     <row r="6" spans="1:8" s="11" customFormat="1" ht="12" x14ac:dyDescent="0.2">
@@ -25469,7 +25924,7 @@
         <v>16.883116883116884</v>
       </c>
       <c r="F45" s="15">
-        <f t="shared" ref="F45:F53" si="5">SUM(C45:D45)</f>
+        <f t="shared" ref="F45:F54" si="5">SUM(C45:D45)</f>
         <v>48</v>
       </c>
       <c r="G45" s="125">
@@ -25648,7 +26103,7 @@
       </c>
       <c r="E52" s="124">
         <f>(D52/'Table 11'!C52)*100</f>
-        <v>3.125</v>
+        <v>3.0769230769230771</v>
       </c>
       <c r="F52" s="15">
         <f t="shared" si="5"/>
@@ -25656,7 +26111,7 @@
       </c>
       <c r="G52" s="125">
         <f>(F52/'Table 11'!H52)*100</f>
-        <v>11.538461538461538</v>
+        <v>11.39240506329114</v>
       </c>
     </row>
     <row r="53" spans="1:9" s="256" customFormat="1" x14ac:dyDescent="0.2">
@@ -25674,7 +26129,7 @@
       </c>
       <c r="E53" s="124">
         <f>(D53/'Table 11'!C53)*100</f>
-        <v>7.8431372549019605</v>
+        <v>7.4074074074074066</v>
       </c>
       <c r="F53" s="15">
         <f t="shared" si="5"/>
@@ -25682,37 +26137,50 @@
       </c>
       <c r="G53" s="125">
         <f>(F53/'Table 11'!H53)*100</f>
-        <v>14.754098360655737</v>
-      </c>
-    </row>
-    <row r="54" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A54" s="130" t="s">
-        <v>36</v>
-      </c>
-      <c r="B54" s="131"/>
-      <c r="C54" s="132"/>
-      <c r="D54" s="132"/>
-      <c r="E54" s="132"/>
-      <c r="F54" s="132"/>
-      <c r="G54" s="132"/>
-      <c r="H54" s="133"/>
+        <v>14.0625</v>
+      </c>
+    </row>
+    <row r="54" spans="1:9" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="13">
+        <v>8</v>
+      </c>
+      <c r="B54" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C54" s="104">
+        <v>7</v>
+      </c>
+      <c r="D54" s="143">
+        <v>5</v>
+      </c>
+      <c r="E54" s="124">
+        <f>(D54/'Table 11'!C54)*100</f>
+        <v>16.129032258064516</v>
+      </c>
+      <c r="F54" s="15">
+        <f t="shared" si="5"/>
+        <v>12</v>
+      </c>
+      <c r="G54" s="125">
+        <f>(F54/'Table 11'!H54)*100</f>
+        <v>27.27272727272727</v>
+      </c>
     </row>
     <row r="55" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A55" s="252" t="s">
-        <v>162</v>
-      </c>
-      <c r="B55" s="252"/>
-      <c r="C55" s="252"/>
-      <c r="D55" s="252"/>
-      <c r="E55" s="252"/>
-      <c r="F55" s="252"/>
-      <c r="G55" s="252"/>
-      <c r="H55" s="252"/>
-      <c r="I55" s="126"/>
-    </row>
-    <row r="56" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A55" s="130" t="s">
+        <v>35</v>
+      </c>
+      <c r="B55" s="131"/>
+      <c r="C55" s="132"/>
+      <c r="D55" s="132"/>
+      <c r="E55" s="132"/>
+      <c r="F55" s="132"/>
+      <c r="G55" s="132"/>
+      <c r="H55" s="133"/>
+    </row>
+    <row r="56" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A56" s="252" t="s">
-        <v>145</v>
+        <v>159</v>
       </c>
       <c r="B56" s="252"/>
       <c r="C56" s="252"/>
@@ -25723,9 +26191,9 @@
       <c r="H56" s="252"/>
       <c r="I56" s="126"/>
     </row>
-    <row r="57" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A57" s="252" t="s">
-        <v>93</v>
+        <v>142</v>
       </c>
       <c r="B57" s="252"/>
       <c r="C57" s="252"/>
@@ -25734,11 +26202,11 @@
       <c r="F57" s="252"/>
       <c r="G57" s="252"/>
       <c r="H57" s="252"/>
-      <c r="I57" s="134"/>
+      <c r="I57" s="126"/>
     </row>
     <row r="58" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="252" t="s">
-        <v>148</v>
+        <v>91</v>
       </c>
       <c r="B58" s="252"/>
       <c r="C58" s="252"/>
@@ -25747,21 +26215,23 @@
       <c r="F58" s="252"/>
       <c r="G58" s="252"/>
       <c r="H58" s="252"/>
-    </row>
-    <row r="59" spans="1:9" x14ac:dyDescent="0.2">
-      <c r="A59" s="127" t="s">
-        <v>149</v>
-      </c>
-      <c r="B59" s="127"/>
-      <c r="C59" s="127"/>
-      <c r="D59" s="127"/>
-      <c r="E59" s="127"/>
-      <c r="F59" s="127"/>
-      <c r="G59" s="127"/>
+      <c r="I58" s="134"/>
+    </row>
+    <row r="59" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="252" t="s">
+        <v>145</v>
+      </c>
+      <c r="B59" s="252"/>
+      <c r="C59" s="252"/>
+      <c r="D59" s="252"/>
+      <c r="E59" s="252"/>
+      <c r="F59" s="252"/>
+      <c r="G59" s="252"/>
+      <c r="H59" s="252"/>
     </row>
     <row r="60" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A60" s="127" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B60" s="127"/>
       <c r="C60" s="127"/>
@@ -25772,7 +26242,7 @@
     </row>
     <row r="61" spans="1:9" x14ac:dyDescent="0.2">
       <c r="A61" s="127" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B61" s="127"/>
       <c r="C61" s="127"/>
@@ -25781,14 +26251,25 @@
       <c r="F61" s="127"/>
       <c r="G61" s="127"/>
     </row>
-    <row r="62" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
-      <c r="A62" s="127"/>
+    <row r="62" spans="1:9" x14ac:dyDescent="0.2">
+      <c r="A62" s="127" t="s">
+        <v>148</v>
+      </c>
       <c r="B62" s="127"/>
       <c r="C62" s="127"/>
       <c r="D62" s="127"/>
       <c r="E62" s="127"/>
       <c r="F62" s="127"/>
       <c r="G62" s="127"/>
+    </row>
+    <row r="63" spans="1:9" hidden="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="127"/>
+      <c r="B63" s="127"/>
+      <c r="C63" s="127"/>
+      <c r="D63" s="127"/>
+      <c r="E63" s="127"/>
+      <c r="F63" s="127"/>
+      <c r="G63" s="127"/>
     </row>
   </sheetData>
   <hyperlinks>
@@ -25804,11 +26285,11 @@
   <sheetPr codeName="Sheet15">
     <tabColor rgb="FFCEDB29"/>
   </sheetPr>
-  <dimension ref="A1:IK354"/>
+  <dimension ref="A1:IK361"/>
   <sheetViews>
     <sheetView zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane ySplit="4" topLeftCell="A333" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E340" sqref="E340"/>
+      <pane ySplit="4" topLeftCell="A339" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="F348" sqref="F348"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -25822,12 +26303,12 @@
   <sheetData>
     <row r="1" spans="1:9" s="119" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="I2" s="79"/>
     </row>
@@ -25836,28 +26317,28 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="24.75" thickBot="1" x14ac:dyDescent="0.25">
       <c r="A4" s="115" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B4" s="107" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="C4" s="107" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="D4" s="107" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="E4" s="107" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F4" s="107" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="G4" s="80" t="s">
         <v>11</v>
       </c>
       <c r="H4" s="80" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="I4" s="110"/>
     </row>
@@ -35431,7 +35912,7 @@
         <v>44237</v>
       </c>
       <c r="B334" s="112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C334" s="112">
         <v>1</v>
@@ -35447,11 +35928,11 @@
       </c>
       <c r="G334" s="13">
         <f t="shared" si="45"/>
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="H334" s="15">
         <f t="shared" si="46"/>
-        <v>2683</v>
+        <v>2684</v>
       </c>
       <c r="I334" s="79"/>
     </row>
@@ -35480,7 +35961,7 @@
       </c>
       <c r="H335" s="15">
         <f t="shared" si="46"/>
-        <v>2696</v>
+        <v>2697</v>
       </c>
       <c r="I335" s="79"/>
     </row>
@@ -35509,11 +35990,11 @@
       </c>
       <c r="H336" s="15">
         <f t="shared" si="46"/>
-        <v>2707</v>
+        <v>2708</v>
       </c>
       <c r="I336" s="79"/>
     </row>
-    <row r="337" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="337" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A337" s="108">
         <v>44240</v>
       </c>
@@ -35538,11 +36019,11 @@
       </c>
       <c r="H337" s="15">
         <f t="shared" si="46"/>
-        <v>2715</v>
+        <v>2716</v>
       </c>
       <c r="I337" s="79"/>
     </row>
-    <row r="338" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="338" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A338" s="108">
         <v>44241</v>
       </c>
@@ -35562,16 +36043,16 @@
         <v>0</v>
       </c>
       <c r="G338" s="13">
-        <f t="shared" ref="G338:G343" si="47">SUM(B338:F338)</f>
+        <f t="shared" ref="G338:G350" si="47">SUM(B338:F338)</f>
         <v>8</v>
       </c>
       <c r="H338" s="15">
-        <f t="shared" ref="H338:H343" si="48">G338+H337</f>
-        <v>2723</v>
+        <f t="shared" ref="H338:H342" si="48">G338+H337</f>
+        <v>2724</v>
       </c>
       <c r="I338" s="79"/>
     </row>
-    <row r="339" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="339" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A339" s="108">
         <v>44242</v>
       </c>
@@ -35596,11 +36077,11 @@
       </c>
       <c r="H339" s="15">
         <f t="shared" si="48"/>
-        <v>2731</v>
+        <v>2732</v>
       </c>
       <c r="I339" s="79"/>
     </row>
-    <row r="340" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="340" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A340" s="108">
         <v>44243</v>
       </c>
@@ -35625,16 +36106,16 @@
       </c>
       <c r="H340" s="15">
         <f t="shared" si="48"/>
-        <v>2748</v>
+        <v>2749</v>
       </c>
       <c r="I340" s="79"/>
     </row>
-    <row r="341" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="341" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A341" s="108">
         <v>44244</v>
       </c>
       <c r="B341" s="112">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C341" s="112">
         <v>2</v>
@@ -35650,20 +36131,20 @@
       </c>
       <c r="G341" s="13">
         <f t="shared" si="47"/>
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="H341" s="15">
         <f t="shared" si="48"/>
-        <v>2759</v>
+        <v>2762</v>
       </c>
       <c r="I341" s="79"/>
     </row>
-    <row r="342" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="342" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A342" s="108">
         <v>44245</v>
       </c>
       <c r="B342" s="112">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="C342" s="112">
         <v>0</v>
@@ -35679,15 +36160,15 @@
       </c>
       <c r="G342" s="13">
         <f t="shared" si="47"/>
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="H342" s="15">
         <f t="shared" si="48"/>
-        <v>2765</v>
+        <v>2769</v>
       </c>
       <c r="I342" s="79"/>
     </row>
-    <row r="343" spans="1:245" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="343" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A343" s="108">
         <v>44246</v>
       </c>
@@ -35711,341 +36192,544 @@
         <v>3</v>
       </c>
       <c r="H343" s="15">
-        <f t="shared" si="48"/>
-        <v>2768</v>
+        <f>G343+H342</f>
+        <v>2772</v>
       </c>
       <c r="I343" s="79"/>
     </row>
-    <row r="344" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A344" s="128" t="s">
-        <v>36</v>
-      </c>
-      <c r="B344" s="128"/>
-      <c r="C344" s="128"/>
-      <c r="D344" s="128"/>
-      <c r="E344" s="128"/>
-      <c r="F344" s="128"/>
-      <c r="G344" s="128"/>
-      <c r="H344" s="128"/>
+    <row r="344" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A344" s="108">
+        <v>44247</v>
+      </c>
+      <c r="B344" s="112">
+        <v>5</v>
+      </c>
+      <c r="C344" s="112">
+        <v>1</v>
+      </c>
+      <c r="D344" s="112">
+        <v>0</v>
+      </c>
+      <c r="E344" s="112">
+        <v>1</v>
+      </c>
+      <c r="F344" s="112">
+        <v>0</v>
+      </c>
+      <c r="G344" s="13">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="H344" s="15">
+        <f t="shared" ref="H344:H350" si="49">G344+H343</f>
+        <v>2779</v>
+      </c>
       <c r="I344" s="79"/>
     </row>
-    <row r="345" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A345" s="250" t="s">
-        <v>162</v>
-      </c>
-      <c r="B345" s="250"/>
-      <c r="C345" s="250"/>
-      <c r="D345" s="250"/>
-      <c r="E345" s="250"/>
-      <c r="F345" s="250"/>
-      <c r="G345" s="250"/>
-      <c r="H345" s="250"/>
+    <row r="345" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A345" s="108">
+        <v>44248</v>
+      </c>
+      <c r="B345" s="112">
+        <v>5</v>
+      </c>
+      <c r="C345" s="112">
+        <v>2</v>
+      </c>
+      <c r="D345" s="112">
+        <v>0</v>
+      </c>
+      <c r="E345" s="112">
+        <v>0</v>
+      </c>
+      <c r="F345" s="112">
+        <v>0</v>
+      </c>
+      <c r="G345" s="13">
+        <f t="shared" si="47"/>
+        <v>7</v>
+      </c>
+      <c r="H345" s="15">
+        <f t="shared" si="49"/>
+        <v>2786</v>
+      </c>
       <c r="I345" s="79"/>
     </row>
-    <row r="346" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A346" s="250" t="s">
-        <v>152</v>
-      </c>
-      <c r="B346" s="250"/>
-      <c r="C346" s="250"/>
-      <c r="D346" s="250"/>
-      <c r="E346" s="250"/>
-      <c r="F346" s="250"/>
-      <c r="G346" s="250"/>
-      <c r="H346" s="250"/>
+    <row r="346" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A346" s="108">
+        <v>44249</v>
+      </c>
+      <c r="B346" s="112">
+        <v>7</v>
+      </c>
+      <c r="C346" s="112">
+        <v>3</v>
+      </c>
+      <c r="D346" s="112">
+        <v>1</v>
+      </c>
+      <c r="E346" s="112">
+        <v>1</v>
+      </c>
+      <c r="F346" s="112">
+        <v>0</v>
+      </c>
+      <c r="G346" s="13">
+        <f t="shared" si="47"/>
+        <v>12</v>
+      </c>
+      <c r="H346" s="15">
+        <f t="shared" si="49"/>
+        <v>2798</v>
+      </c>
       <c r="I346" s="79"/>
     </row>
-    <row r="347" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A347" s="250" t="s">
-        <v>153</v>
-      </c>
-      <c r="B347" s="250"/>
-      <c r="C347" s="250"/>
-      <c r="D347" s="250"/>
-      <c r="E347" s="250"/>
-      <c r="F347" s="250"/>
-      <c r="G347" s="250"/>
-      <c r="H347" s="250"/>
+    <row r="347" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A347" s="108">
+        <v>44250</v>
+      </c>
+      <c r="B347" s="112">
+        <v>1</v>
+      </c>
+      <c r="C347" s="112">
+        <v>0</v>
+      </c>
+      <c r="D347" s="112">
+        <v>0</v>
+      </c>
+      <c r="E347" s="112">
+        <v>0</v>
+      </c>
+      <c r="F347" s="112">
+        <v>0</v>
+      </c>
+      <c r="G347" s="13">
+        <f>SUM(B347:F347)</f>
+        <v>1</v>
+      </c>
+      <c r="H347" s="15">
+        <f t="shared" si="49"/>
+        <v>2799</v>
+      </c>
       <c r="I347" s="79"/>
     </row>
-    <row r="348" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A348" s="250" t="s">
-        <v>95</v>
-      </c>
-      <c r="B348" s="250"/>
-      <c r="C348" s="250"/>
-      <c r="D348" s="250"/>
-      <c r="E348" s="250"/>
-      <c r="F348" s="250"/>
-      <c r="G348" s="250"/>
-      <c r="H348" s="250"/>
+    <row r="348" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A348" s="108">
+        <v>44251</v>
+      </c>
+      <c r="B348" s="112">
+        <v>5</v>
+      </c>
+      <c r="C348" s="112">
+        <v>0</v>
+      </c>
+      <c r="D348" s="112">
+        <v>0</v>
+      </c>
+      <c r="E348" s="112">
+        <v>1</v>
+      </c>
+      <c r="F348" s="112">
+        <v>0</v>
+      </c>
+      <c r="G348" s="13">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="H348" s="15">
+        <f t="shared" si="49"/>
+        <v>2805</v>
+      </c>
       <c r="I348" s="79"/>
     </row>
-    <row r="349" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A349" s="250" t="s">
-        <v>67</v>
-      </c>
-      <c r="B349" s="250"/>
-      <c r="C349" s="250"/>
-      <c r="D349" s="250"/>
-      <c r="E349" s="250"/>
-      <c r="F349" s="250"/>
-      <c r="G349" s="250"/>
-      <c r="H349" s="250"/>
-    </row>
-    <row r="350" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A350" s="250" t="s">
-        <v>66</v>
-      </c>
-      <c r="B350" s="250"/>
-      <c r="C350" s="250"/>
-      <c r="D350" s="250"/>
-      <c r="E350" s="250"/>
-      <c r="F350" s="250"/>
-      <c r="G350" s="250"/>
-      <c r="H350" s="250"/>
-      <c r="K350" s="10"/>
-      <c r="L350" s="10"/>
-      <c r="M350" s="10"/>
-      <c r="N350" s="10"/>
-      <c r="O350" s="10"/>
-      <c r="P350" s="10"/>
-      <c r="Q350" s="10"/>
-      <c r="R350" s="10"/>
-      <c r="S350" s="10"/>
-      <c r="T350" s="10"/>
-      <c r="U350" s="10"/>
-      <c r="V350" s="10"/>
-      <c r="W350" s="10"/>
-      <c r="X350" s="10"/>
-      <c r="Y350" s="10"/>
-      <c r="Z350" s="10"/>
-      <c r="AA350" s="10"/>
-      <c r="AB350" s="10"/>
-      <c r="AC350" s="10"/>
-      <c r="AD350" s="10"/>
-      <c r="AE350" s="10"/>
-      <c r="AF350" s="10"/>
-      <c r="AG350" s="10"/>
-      <c r="AH350" s="10"/>
-      <c r="AI350" s="10"/>
-      <c r="AJ350" s="10"/>
-      <c r="AK350" s="10"/>
-      <c r="AL350" s="10"/>
-      <c r="AM350" s="10"/>
-      <c r="AN350" s="10"/>
-      <c r="AO350" s="10"/>
-      <c r="AP350" s="10"/>
-      <c r="AQ350" s="10"/>
-      <c r="AR350" s="10"/>
-      <c r="AS350" s="10"/>
-      <c r="AT350" s="10"/>
-      <c r="AU350" s="10"/>
-      <c r="AV350" s="10"/>
-      <c r="AW350" s="10"/>
-      <c r="AX350" s="10"/>
-      <c r="AY350" s="10"/>
-      <c r="AZ350" s="10"/>
-      <c r="BA350" s="10"/>
-      <c r="BB350" s="10"/>
-      <c r="BC350" s="10"/>
-      <c r="BD350" s="10"/>
-      <c r="BE350" s="10"/>
-      <c r="BF350" s="10"/>
-      <c r="BG350" s="10"/>
-      <c r="BH350" s="10"/>
-      <c r="BI350" s="10"/>
-      <c r="BJ350" s="10"/>
-      <c r="BK350" s="10"/>
-      <c r="BL350" s="10"/>
-      <c r="BM350" s="10"/>
-      <c r="BN350" s="10"/>
-      <c r="BO350" s="10"/>
-      <c r="BP350" s="10"/>
-      <c r="BQ350" s="10"/>
-      <c r="BR350" s="10"/>
-      <c r="BS350" s="10"/>
-      <c r="BT350" s="10"/>
-      <c r="BU350" s="10"/>
-      <c r="BV350" s="10"/>
-      <c r="BW350" s="10"/>
-      <c r="BX350" s="10"/>
-      <c r="BY350" s="10"/>
-      <c r="BZ350" s="10"/>
-      <c r="CA350" s="10"/>
-      <c r="CB350" s="10"/>
-      <c r="CC350" s="10"/>
-      <c r="CD350" s="10"/>
-      <c r="CE350" s="10"/>
-      <c r="CF350" s="10"/>
-      <c r="CG350" s="10"/>
-      <c r="CH350" s="10"/>
-      <c r="CI350" s="10"/>
-      <c r="CJ350" s="10"/>
-      <c r="CK350" s="10"/>
-      <c r="CL350" s="10"/>
-      <c r="CM350" s="10"/>
-      <c r="CN350" s="10"/>
-      <c r="CO350" s="10"/>
-      <c r="CP350" s="10"/>
-      <c r="CQ350" s="10"/>
-      <c r="CR350" s="10"/>
-      <c r="CS350" s="10"/>
-      <c r="CT350" s="10"/>
-      <c r="CU350" s="10"/>
-      <c r="CV350" s="10"/>
-      <c r="CW350" s="10"/>
-      <c r="CX350" s="10"/>
-      <c r="CY350" s="10"/>
-      <c r="CZ350" s="10"/>
-      <c r="DA350" s="10"/>
-      <c r="DB350" s="10"/>
-      <c r="DC350" s="10"/>
-      <c r="DD350" s="10"/>
-      <c r="DE350" s="10"/>
-      <c r="DF350" s="10"/>
-      <c r="DG350" s="10"/>
-      <c r="DH350" s="10"/>
-      <c r="DI350" s="10"/>
-      <c r="DJ350" s="10"/>
-      <c r="DK350" s="10"/>
-      <c r="DL350" s="10"/>
-      <c r="DM350" s="10"/>
-      <c r="DN350" s="10"/>
-      <c r="DO350" s="10"/>
-      <c r="DP350" s="10"/>
-      <c r="DQ350" s="10"/>
-      <c r="DR350" s="10"/>
-      <c r="DS350" s="10"/>
-      <c r="DT350" s="10"/>
-      <c r="DU350" s="10"/>
-      <c r="DV350" s="10"/>
-      <c r="DW350" s="10"/>
-      <c r="DX350" s="10"/>
-      <c r="DY350" s="10"/>
-      <c r="DZ350" s="10"/>
-      <c r="EA350" s="10"/>
-      <c r="EB350" s="10"/>
-      <c r="EC350" s="10"/>
-      <c r="ED350" s="10"/>
-      <c r="EE350" s="10"/>
-      <c r="EF350" s="10"/>
-      <c r="EG350" s="10"/>
-      <c r="EH350" s="10"/>
-      <c r="EI350" s="10"/>
-      <c r="EJ350" s="10"/>
-      <c r="EK350" s="10"/>
-      <c r="EL350" s="10"/>
-      <c r="EM350" s="10"/>
-      <c r="EN350" s="10"/>
-      <c r="EO350" s="10"/>
-      <c r="EP350" s="10"/>
-      <c r="EQ350" s="10"/>
-      <c r="ER350" s="10"/>
-      <c r="ES350" s="10"/>
-      <c r="ET350" s="10"/>
-      <c r="EU350" s="10"/>
-      <c r="EV350" s="10"/>
-      <c r="EW350" s="10"/>
-      <c r="EX350" s="10"/>
-      <c r="EY350" s="10"/>
-      <c r="EZ350" s="10"/>
-      <c r="FA350" s="10"/>
-      <c r="FB350" s="10"/>
-      <c r="FC350" s="10"/>
-      <c r="FD350" s="10"/>
-      <c r="FE350" s="10"/>
-      <c r="FF350" s="10"/>
-      <c r="FG350" s="10"/>
-      <c r="FH350" s="10"/>
-      <c r="FI350" s="10"/>
-      <c r="FJ350" s="10"/>
-      <c r="FK350" s="10"/>
-      <c r="FL350" s="10"/>
-      <c r="FM350" s="10"/>
-      <c r="FN350" s="10"/>
-      <c r="FO350" s="10"/>
-      <c r="FP350" s="10"/>
-      <c r="FQ350" s="10"/>
-      <c r="FR350" s="10"/>
-      <c r="FS350" s="10"/>
-      <c r="FT350" s="10"/>
-      <c r="FU350" s="10"/>
-      <c r="FV350" s="10"/>
-      <c r="FW350" s="10"/>
-      <c r="FX350" s="10"/>
-      <c r="FY350" s="10"/>
-      <c r="FZ350" s="10"/>
-      <c r="GA350" s="10"/>
-      <c r="GB350" s="10"/>
-      <c r="GC350" s="10"/>
-      <c r="GD350" s="10"/>
-      <c r="GE350" s="10"/>
-      <c r="GF350" s="10"/>
-      <c r="GG350" s="10"/>
-      <c r="GH350" s="10"/>
-      <c r="GI350" s="10"/>
-      <c r="GJ350" s="10"/>
-      <c r="GK350" s="10"/>
-      <c r="GL350" s="10"/>
-      <c r="GM350" s="10"/>
-      <c r="GN350" s="10"/>
-      <c r="GO350" s="10"/>
-      <c r="GP350" s="10"/>
-      <c r="GQ350" s="10"/>
-      <c r="GR350" s="10"/>
-      <c r="GS350" s="10"/>
-      <c r="GT350" s="10"/>
-      <c r="GU350" s="10"/>
-      <c r="GV350" s="10"/>
-      <c r="GW350" s="10"/>
-      <c r="GX350" s="10"/>
-      <c r="GY350" s="10"/>
-      <c r="GZ350" s="10"/>
-      <c r="HA350" s="10"/>
-      <c r="HB350" s="10"/>
-      <c r="HC350" s="10"/>
-      <c r="HD350" s="10"/>
-      <c r="HE350" s="10"/>
-      <c r="HF350" s="10"/>
-      <c r="HG350" s="10"/>
-      <c r="HH350" s="10"/>
-      <c r="HI350" s="10"/>
-      <c r="HJ350" s="10"/>
-      <c r="HK350" s="10"/>
-      <c r="HL350" s="10"/>
-      <c r="HM350" s="10"/>
-      <c r="HN350" s="10"/>
-      <c r="HO350" s="10"/>
-      <c r="HP350" s="10"/>
-      <c r="HQ350" s="10"/>
-      <c r="HR350" s="10"/>
-      <c r="HS350" s="10"/>
-      <c r="HT350" s="10"/>
-      <c r="HU350" s="10"/>
-      <c r="HV350" s="10"/>
-      <c r="HW350" s="10"/>
-      <c r="HX350" s="10"/>
-      <c r="HY350" s="10"/>
-      <c r="HZ350" s="10"/>
-      <c r="IA350" s="10"/>
-      <c r="IB350" s="10"/>
-      <c r="IC350" s="10"/>
-      <c r="ID350" s="10"/>
-      <c r="IE350" s="10"/>
-      <c r="IF350" s="10"/>
-      <c r="IG350" s="10"/>
-      <c r="IH350" s="10"/>
-      <c r="II350" s="10"/>
-      <c r="IJ350" s="10"/>
-      <c r="IK350" s="10"/>
-    </row>
-    <row r="351" spans="1:245" x14ac:dyDescent="0.2"/>
-    <row r="352" spans="1:245" x14ac:dyDescent="0.2">
-      <c r="J352" s="10"/>
-    </row>
-    <row r="353" hidden="1" x14ac:dyDescent="0.2"/>
-    <row r="354" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="349" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A349" s="108">
+        <v>44252</v>
+      </c>
+      <c r="B349" s="112">
+        <v>5</v>
+      </c>
+      <c r="C349" s="112">
+        <v>0</v>
+      </c>
+      <c r="D349" s="112">
+        <v>0</v>
+      </c>
+      <c r="E349" s="112">
+        <v>1</v>
+      </c>
+      <c r="F349" s="112">
+        <v>0</v>
+      </c>
+      <c r="G349" s="13">
+        <f t="shared" si="47"/>
+        <v>6</v>
+      </c>
+      <c r="H349" s="15">
+        <f t="shared" si="49"/>
+        <v>2811</v>
+      </c>
+      <c r="I349" s="79"/>
+    </row>
+    <row r="350" spans="1:9" s="256" customFormat="1" ht="12" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A350" s="108">
+        <v>44253</v>
+      </c>
+      <c r="B350" s="112">
+        <v>3</v>
+      </c>
+      <c r="C350" s="112">
+        <v>1</v>
+      </c>
+      <c r="D350" s="112">
+        <v>0</v>
+      </c>
+      <c r="E350" s="112">
+        <v>1</v>
+      </c>
+      <c r="F350" s="112">
+        <v>0</v>
+      </c>
+      <c r="G350" s="13">
+        <f t="shared" si="47"/>
+        <v>5</v>
+      </c>
+      <c r="H350" s="15">
+        <f t="shared" si="49"/>
+        <v>2816</v>
+      </c>
+      <c r="I350" s="79"/>
+    </row>
+    <row r="351" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A351" s="128" t="s">
+        <v>35</v>
+      </c>
+      <c r="B351" s="128"/>
+      <c r="C351" s="128"/>
+      <c r="D351" s="128"/>
+      <c r="E351" s="128"/>
+      <c r="F351" s="128"/>
+      <c r="G351" s="128"/>
+      <c r="H351" s="128"/>
+      <c r="I351" s="79"/>
+    </row>
+    <row r="352" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A352" s="250" t="s">
+        <v>159</v>
+      </c>
+      <c r="B352" s="250"/>
+      <c r="C352" s="250"/>
+      <c r="D352" s="250"/>
+      <c r="E352" s="250"/>
+      <c r="F352" s="250"/>
+      <c r="G352" s="250"/>
+      <c r="H352" s="250"/>
+      <c r="I352" s="79"/>
+    </row>
+    <row r="353" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A353" s="250" t="s">
+        <v>149</v>
+      </c>
+      <c r="B353" s="250"/>
+      <c r="C353" s="250"/>
+      <c r="D353" s="250"/>
+      <c r="E353" s="250"/>
+      <c r="F353" s="250"/>
+      <c r="G353" s="250"/>
+      <c r="H353" s="250"/>
+      <c r="I353" s="79"/>
+    </row>
+    <row r="354" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A354" s="250" t="s">
+        <v>150</v>
+      </c>
+      <c r="B354" s="250"/>
+      <c r="C354" s="250"/>
+      <c r="D354" s="250"/>
+      <c r="E354" s="250"/>
+      <c r="F354" s="250"/>
+      <c r="G354" s="250"/>
+      <c r="H354" s="250"/>
+      <c r="I354" s="79"/>
+    </row>
+    <row r="355" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A355" s="250" t="s">
+        <v>93</v>
+      </c>
+      <c r="B355" s="250"/>
+      <c r="C355" s="250"/>
+      <c r="D355" s="250"/>
+      <c r="E355" s="250"/>
+      <c r="F355" s="250"/>
+      <c r="G355" s="250"/>
+      <c r="H355" s="250"/>
+      <c r="I355" s="79"/>
+    </row>
+    <row r="356" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A356" s="250" t="s">
+        <v>65</v>
+      </c>
+      <c r="B356" s="250"/>
+      <c r="C356" s="250"/>
+      <c r="D356" s="250"/>
+      <c r="E356" s="250"/>
+      <c r="F356" s="250"/>
+      <c r="G356" s="250"/>
+      <c r="H356" s="250"/>
+    </row>
+    <row r="357" spans="1:245" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A357" s="250" t="s">
+        <v>64</v>
+      </c>
+      <c r="B357" s="250"/>
+      <c r="C357" s="250"/>
+      <c r="D357" s="250"/>
+      <c r="E357" s="250"/>
+      <c r="F357" s="250"/>
+      <c r="G357" s="250"/>
+      <c r="H357" s="250"/>
+      <c r="K357" s="10"/>
+      <c r="L357" s="10"/>
+      <c r="M357" s="10"/>
+      <c r="N357" s="10"/>
+      <c r="O357" s="10"/>
+      <c r="P357" s="10"/>
+      <c r="Q357" s="10"/>
+      <c r="R357" s="10"/>
+      <c r="S357" s="10"/>
+      <c r="T357" s="10"/>
+      <c r="U357" s="10"/>
+      <c r="V357" s="10"/>
+      <c r="W357" s="10"/>
+      <c r="X357" s="10"/>
+      <c r="Y357" s="10"/>
+      <c r="Z357" s="10"/>
+      <c r="AA357" s="10"/>
+      <c r="AB357" s="10"/>
+      <c r="AC357" s="10"/>
+      <c r="AD357" s="10"/>
+      <c r="AE357" s="10"/>
+      <c r="AF357" s="10"/>
+      <c r="AG357" s="10"/>
+      <c r="AH357" s="10"/>
+      <c r="AI357" s="10"/>
+      <c r="AJ357" s="10"/>
+      <c r="AK357" s="10"/>
+      <c r="AL357" s="10"/>
+      <c r="AM357" s="10"/>
+      <c r="AN357" s="10"/>
+      <c r="AO357" s="10"/>
+      <c r="AP357" s="10"/>
+      <c r="AQ357" s="10"/>
+      <c r="AR357" s="10"/>
+      <c r="AS357" s="10"/>
+      <c r="AT357" s="10"/>
+      <c r="AU357" s="10"/>
+      <c r="AV357" s="10"/>
+      <c r="AW357" s="10"/>
+      <c r="AX357" s="10"/>
+      <c r="AY357" s="10"/>
+      <c r="AZ357" s="10"/>
+      <c r="BA357" s="10"/>
+      <c r="BB357" s="10"/>
+      <c r="BC357" s="10"/>
+      <c r="BD357" s="10"/>
+      <c r="BE357" s="10"/>
+      <c r="BF357" s="10"/>
+      <c r="BG357" s="10"/>
+      <c r="BH357" s="10"/>
+      <c r="BI357" s="10"/>
+      <c r="BJ357" s="10"/>
+      <c r="BK357" s="10"/>
+      <c r="BL357" s="10"/>
+      <c r="BM357" s="10"/>
+      <c r="BN357" s="10"/>
+      <c r="BO357" s="10"/>
+      <c r="BP357" s="10"/>
+      <c r="BQ357" s="10"/>
+      <c r="BR357" s="10"/>
+      <c r="BS357" s="10"/>
+      <c r="BT357" s="10"/>
+      <c r="BU357" s="10"/>
+      <c r="BV357" s="10"/>
+      <c r="BW357" s="10"/>
+      <c r="BX357" s="10"/>
+      <c r="BY357" s="10"/>
+      <c r="BZ357" s="10"/>
+      <c r="CA357" s="10"/>
+      <c r="CB357" s="10"/>
+      <c r="CC357" s="10"/>
+      <c r="CD357" s="10"/>
+      <c r="CE357" s="10"/>
+      <c r="CF357" s="10"/>
+      <c r="CG357" s="10"/>
+      <c r="CH357" s="10"/>
+      <c r="CI357" s="10"/>
+      <c r="CJ357" s="10"/>
+      <c r="CK357" s="10"/>
+      <c r="CL357" s="10"/>
+      <c r="CM357" s="10"/>
+      <c r="CN357" s="10"/>
+      <c r="CO357" s="10"/>
+      <c r="CP357" s="10"/>
+      <c r="CQ357" s="10"/>
+      <c r="CR357" s="10"/>
+      <c r="CS357" s="10"/>
+      <c r="CT357" s="10"/>
+      <c r="CU357" s="10"/>
+      <c r="CV357" s="10"/>
+      <c r="CW357" s="10"/>
+      <c r="CX357" s="10"/>
+      <c r="CY357" s="10"/>
+      <c r="CZ357" s="10"/>
+      <c r="DA357" s="10"/>
+      <c r="DB357" s="10"/>
+      <c r="DC357" s="10"/>
+      <c r="DD357" s="10"/>
+      <c r="DE357" s="10"/>
+      <c r="DF357" s="10"/>
+      <c r="DG357" s="10"/>
+      <c r="DH357" s="10"/>
+      <c r="DI357" s="10"/>
+      <c r="DJ357" s="10"/>
+      <c r="DK357" s="10"/>
+      <c r="DL357" s="10"/>
+      <c r="DM357" s="10"/>
+      <c r="DN357" s="10"/>
+      <c r="DO357" s="10"/>
+      <c r="DP357" s="10"/>
+      <c r="DQ357" s="10"/>
+      <c r="DR357" s="10"/>
+      <c r="DS357" s="10"/>
+      <c r="DT357" s="10"/>
+      <c r="DU357" s="10"/>
+      <c r="DV357" s="10"/>
+      <c r="DW357" s="10"/>
+      <c r="DX357" s="10"/>
+      <c r="DY357" s="10"/>
+      <c r="DZ357" s="10"/>
+      <c r="EA357" s="10"/>
+      <c r="EB357" s="10"/>
+      <c r="EC357" s="10"/>
+      <c r="ED357" s="10"/>
+      <c r="EE357" s="10"/>
+      <c r="EF357" s="10"/>
+      <c r="EG357" s="10"/>
+      <c r="EH357" s="10"/>
+      <c r="EI357" s="10"/>
+      <c r="EJ357" s="10"/>
+      <c r="EK357" s="10"/>
+      <c r="EL357" s="10"/>
+      <c r="EM357" s="10"/>
+      <c r="EN357" s="10"/>
+      <c r="EO357" s="10"/>
+      <c r="EP357" s="10"/>
+      <c r="EQ357" s="10"/>
+      <c r="ER357" s="10"/>
+      <c r="ES357" s="10"/>
+      <c r="ET357" s="10"/>
+      <c r="EU357" s="10"/>
+      <c r="EV357" s="10"/>
+      <c r="EW357" s="10"/>
+      <c r="EX357" s="10"/>
+      <c r="EY357" s="10"/>
+      <c r="EZ357" s="10"/>
+      <c r="FA357" s="10"/>
+      <c r="FB357" s="10"/>
+      <c r="FC357" s="10"/>
+      <c r="FD357" s="10"/>
+      <c r="FE357" s="10"/>
+      <c r="FF357" s="10"/>
+      <c r="FG357" s="10"/>
+      <c r="FH357" s="10"/>
+      <c r="FI357" s="10"/>
+      <c r="FJ357" s="10"/>
+      <c r="FK357" s="10"/>
+      <c r="FL357" s="10"/>
+      <c r="FM357" s="10"/>
+      <c r="FN357" s="10"/>
+      <c r="FO357" s="10"/>
+      <c r="FP357" s="10"/>
+      <c r="FQ357" s="10"/>
+      <c r="FR357" s="10"/>
+      <c r="FS357" s="10"/>
+      <c r="FT357" s="10"/>
+      <c r="FU357" s="10"/>
+      <c r="FV357" s="10"/>
+      <c r="FW357" s="10"/>
+      <c r="FX357" s="10"/>
+      <c r="FY357" s="10"/>
+      <c r="FZ357" s="10"/>
+      <c r="GA357" s="10"/>
+      <c r="GB357" s="10"/>
+      <c r="GC357" s="10"/>
+      <c r="GD357" s="10"/>
+      <c r="GE357" s="10"/>
+      <c r="GF357" s="10"/>
+      <c r="GG357" s="10"/>
+      <c r="GH357" s="10"/>
+      <c r="GI357" s="10"/>
+      <c r="GJ357" s="10"/>
+      <c r="GK357" s="10"/>
+      <c r="GL357" s="10"/>
+      <c r="GM357" s="10"/>
+      <c r="GN357" s="10"/>
+      <c r="GO357" s="10"/>
+      <c r="GP357" s="10"/>
+      <c r="GQ357" s="10"/>
+      <c r="GR357" s="10"/>
+      <c r="GS357" s="10"/>
+      <c r="GT357" s="10"/>
+      <c r="GU357" s="10"/>
+      <c r="GV357" s="10"/>
+      <c r="GW357" s="10"/>
+      <c r="GX357" s="10"/>
+      <c r="GY357" s="10"/>
+      <c r="GZ357" s="10"/>
+      <c r="HA357" s="10"/>
+      <c r="HB357" s="10"/>
+      <c r="HC357" s="10"/>
+      <c r="HD357" s="10"/>
+      <c r="HE357" s="10"/>
+      <c r="HF357" s="10"/>
+      <c r="HG357" s="10"/>
+      <c r="HH357" s="10"/>
+      <c r="HI357" s="10"/>
+      <c r="HJ357" s="10"/>
+      <c r="HK357" s="10"/>
+      <c r="HL357" s="10"/>
+      <c r="HM357" s="10"/>
+      <c r="HN357" s="10"/>
+      <c r="HO357" s="10"/>
+      <c r="HP357" s="10"/>
+      <c r="HQ357" s="10"/>
+      <c r="HR357" s="10"/>
+      <c r="HS357" s="10"/>
+      <c r="HT357" s="10"/>
+      <c r="HU357" s="10"/>
+      <c r="HV357" s="10"/>
+      <c r="HW357" s="10"/>
+      <c r="HX357" s="10"/>
+      <c r="HY357" s="10"/>
+      <c r="HZ357" s="10"/>
+      <c r="IA357" s="10"/>
+      <c r="IB357" s="10"/>
+      <c r="IC357" s="10"/>
+      <c r="ID357" s="10"/>
+      <c r="IE357" s="10"/>
+      <c r="IF357" s="10"/>
+      <c r="IG357" s="10"/>
+      <c r="IH357" s="10"/>
+      <c r="II357" s="10"/>
+      <c r="IJ357" s="10"/>
+      <c r="IK357" s="10"/>
+    </row>
+    <row r="358" spans="1:245" x14ac:dyDescent="0.2"/>
+    <row r="359" spans="1:245" x14ac:dyDescent="0.2">
+      <c r="J359" s="10"/>
+    </row>
+    <row r="360" spans="1:245" hidden="1" x14ac:dyDescent="0.2"/>
+    <row r="361" spans="1:245" hidden="1" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -36058,10 +36742,10 @@
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr codeName="Sheet2"/>
-  <dimension ref="A1:XFC35"/>
+  <dimension ref="A1:XFC38"/>
   <sheetViews>
     <sheetView showGridLines="0" topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+      <selection activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -36075,87 +36759,87 @@
   <sheetData>
     <row r="1" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B1" s="19" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
     </row>
     <row r="2" spans="2:2" x14ac:dyDescent="0.2"/>
-    <row r="3" spans="2:2" ht="47.25" x14ac:dyDescent="0.2">
+    <row r="3" spans="2:2" s="256" customFormat="1" ht="47.25" x14ac:dyDescent="0.2">
       <c r="B3" s="17" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
+    <row r="4" spans="2:2" s="256" customFormat="1" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B4" s="17"/>
     </row>
-    <row r="5" spans="2:2" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="5" spans="2:2" s="256" customFormat="1" ht="66.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="B5" s="17" t="s">
-        <v>38</v>
+        <v>163</v>
       </c>
     </row>
     <row r="6" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="7" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B7" s="18" t="s">
-        <v>14</v>
+        <v>164</v>
       </c>
     </row>
     <row r="8" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="9" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B9" s="19" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="10" spans="2:2" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2"/>
     <row r="11" spans="2:2" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B11" s="18" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
     </row>
     <row r="12" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="13" spans="2:2" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B13" s="17" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
     </row>
     <row r="14" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="15" spans="2:2" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B15" s="17" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
     </row>
     <row r="16" spans="2:2" x14ac:dyDescent="0.2"/>
     <row r="17" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B17" s="17" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
     </row>
     <row r="18" spans="2:8" x14ac:dyDescent="0.2"/>
     <row r="19" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B19" s="17" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
     </row>
     <row r="20" spans="2:8" x14ac:dyDescent="0.2"/>
     <row r="21" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B21" s="17" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
     </row>
     <row r="22" spans="2:8" x14ac:dyDescent="0.2"/>
     <row r="23" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B23" s="17" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="2:8" x14ac:dyDescent="0.2"/>
     <row r="25" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B25" s="17" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
     </row>
     <row r="26" spans="2:8" x14ac:dyDescent="0.2"/>
     <row r="27" spans="2:8" ht="15.75" x14ac:dyDescent="0.2">
       <c r="B27" s="260" t="s">
-        <v>155</v>
+        <v>152</v>
       </c>
       <c r="C27" s="255"/>
       <c r="D27" s="255"/>
@@ -36175,7 +36859,7 @@
     </row>
     <row r="29" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B29" s="262" t="s">
-        <v>156</v>
+        <v>153</v>
       </c>
       <c r="C29" s="257"/>
       <c r="D29" s="257"/>
@@ -36195,7 +36879,7 @@
     </row>
     <row r="31" spans="2:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B31" s="263" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
       <c r="C31" s="257"/>
       <c r="D31" s="257"/>
@@ -36209,7 +36893,7 @@
     </row>
     <row r="33" spans="2:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B33" s="264" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="C33" s="253"/>
       <c r="D33" s="253"/>
@@ -36220,13 +36904,13 @@
       <c r="I33" s="253"/>
       <c r="J33" s="253"/>
       <c r="K33" s="254" t="s">
-        <v>154</v>
+        <v>151</v>
       </c>
       <c r="L33" s="253"/>
     </row>
     <row r="34" spans="2:12" s="256" customFormat="1" ht="15.75" x14ac:dyDescent="0.25">
       <c r="B34" s="265" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="C34" s="255"/>
       <c r="D34" s="255"/>
@@ -36240,6 +36924,9 @@
       <c r="L34" s="255"/>
     </row>
     <row r="35" spans="2:12" x14ac:dyDescent="0.2"/>
+    <row r="36" spans="2:12" x14ac:dyDescent="0.2"/>
+    <row r="37" spans="2:12" x14ac:dyDescent="0.2"/>
+    <row r="38" spans="2:12" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="K33" r:id="rId1"/>
@@ -36259,8 +36946,8 @@
               <from>
                 <xdr:col>1</xdr:col>
                 <xdr:colOff>9658350</xdr:colOff>
-                <xdr:row>4</xdr:row>
-                <xdr:rowOff>647700</xdr:rowOff>
+                <xdr:row>5</xdr:row>
+                <xdr:rowOff>0</xdr:rowOff>
               </from>
               <to>
                 <xdr:col>1</xdr:col>
@@ -36300,44 +36987,44 @@
   <sheetData>
     <row r="1" spans="2:3" x14ac:dyDescent="0.25">
       <c r="B1" s="20" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
     </row>
     <row r="2" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="3" spans="2:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B3" s="21" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
     </row>
     <row r="4" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="5" spans="2:3" ht="31.5" x14ac:dyDescent="0.2">
       <c r="B5" s="21" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="6" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="7" spans="2:3" ht="32.1" customHeight="1" x14ac:dyDescent="0.25">
       <c r="B7" s="129" t="s">
-        <v>137</v>
+        <v>134</v>
       </c>
       <c r="C7" s="29"/>
     </row>
     <row r="8" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="9" spans="2:3" x14ac:dyDescent="0.2">
       <c r="B9" s="22" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="11" spans="2:3" ht="78.75" x14ac:dyDescent="0.2">
       <c r="B11" s="21" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
     </row>
     <row r="12" spans="2:3" x14ac:dyDescent="0.25"/>
     <row r="13" spans="2:3" ht="94.5" x14ac:dyDescent="0.25">
       <c r="B13" s="30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
     </row>
     <row r="14" spans="2:3" x14ac:dyDescent="0.25">
@@ -36345,7 +37032,7 @@
     </row>
     <row r="15" spans="2:3" ht="63" x14ac:dyDescent="0.25">
       <c r="B15" s="32" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
     </row>
     <row r="16" spans="2:3" x14ac:dyDescent="0.25">
@@ -36382,11 +37069,11 @@
     <tabColor theme="3" tint="0.59999389629810485"/>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A1:J71"/>
+  <dimension ref="A1:K73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="I12" sqref="I12"/>
+      <selection pane="bottomLeft" activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -36399,42 +37086,44 @@
     <col min="6" max="6" width="19" style="40" customWidth="1"/>
     <col min="7" max="7" width="10.85546875" style="40" customWidth="1"/>
     <col min="8" max="8" width="11" style="40" customWidth="1"/>
-    <col min="9" max="9" width="12.42578125" style="41" customWidth="1"/>
-    <col min="10" max="11" width="8.7109375" style="40" customWidth="1"/>
-    <col min="12" max="16384" width="0" style="40" hidden="1"/>
+    <col min="9" max="9" width="11" style="256" customWidth="1"/>
+    <col min="10" max="10" width="12.42578125" style="41" customWidth="1"/>
+    <col min="11" max="12" width="8.7109375" style="40" customWidth="1"/>
+    <col min="13" max="16384" width="0" style="40" hidden="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:10" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>102</v>
+        <v>165</v>
       </c>
       <c r="B2" s="2"/>
     </row>
-    <row r="3" spans="1:10" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:11" ht="11.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A3" s="39"/>
       <c r="B3" s="2"/>
     </row>
-    <row r="4" spans="1:10" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:11" ht="30.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="235"/>
       <c r="B4" s="237"/>
       <c r="C4" s="230"/>
       <c r="D4" s="173"/>
       <c r="E4" s="215" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F4" s="230"/>
       <c r="G4" s="234" t="s">
         <v>0</v>
       </c>
       <c r="H4" s="233"/>
-      <c r="I4" s="230"/>
-    </row>
-    <row r="5" spans="1:10" s="5" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="I4" s="266"/>
+      <c r="J4" s="230"/>
+    </row>
+    <row r="5" spans="1:11" s="5" customFormat="1" ht="69.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="236" t="s">
         <v>1</v>
       </c>
@@ -36442,16 +37131,16 @@
         <v>4</v>
       </c>
       <c r="C5" s="231" t="s">
-        <v>144</v>
+        <v>141</v>
       </c>
       <c r="D5" s="174" t="s">
+        <v>107</v>
+      </c>
+      <c r="E5" s="216" t="s">
         <v>110</v>
       </c>
-      <c r="E5" s="216" t="s">
-        <v>113</v>
-      </c>
       <c r="F5" s="228" t="s">
-        <v>143</v>
+        <v>140</v>
       </c>
       <c r="G5" s="172" t="s">
         <v>2</v>
@@ -36459,12 +37148,15 @@
       <c r="H5" s="172" t="s">
         <v>3</v>
       </c>
-      <c r="I5" s="228" t="s">
-        <v>111</v>
-      </c>
-      <c r="J5" s="6"/>
-    </row>
-    <row r="6" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="I5" s="267" t="s">
+        <v>161</v>
+      </c>
+      <c r="J5" s="228" t="s">
+        <v>108</v>
+      </c>
+      <c r="K5" s="6"/>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A6" s="13">
         <v>1</v>
       </c>
@@ -36489,12 +37181,15 @@
       <c r="H6" s="95">
         <v>481</v>
       </c>
-      <c r="I6" s="94">
+      <c r="I6" s="95">
+        <v>247</v>
+      </c>
+      <c r="J6" s="94">
         <v>145</v>
       </c>
-      <c r="J6" s="33"/>
-    </row>
-    <row r="7" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K6" s="33"/>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A7" s="13">
         <v>2</v>
       </c>
@@ -36519,12 +37214,15 @@
       <c r="H7" s="95">
         <v>470</v>
       </c>
-      <c r="I7" s="94">
+      <c r="I7" s="95">
+        <v>209</v>
+      </c>
+      <c r="J7" s="94">
         <v>153</v>
       </c>
-      <c r="J7" s="33"/>
-    </row>
-    <row r="8" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K7" s="33"/>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A8" s="13">
         <v>3</v>
       </c>
@@ -36549,12 +37247,15 @@
       <c r="H8" s="95">
         <v>426</v>
       </c>
-      <c r="I8" s="94">
+      <c r="I8" s="95">
+        <v>242</v>
+      </c>
+      <c r="J8" s="94">
         <v>182</v>
       </c>
-      <c r="J8" s="33"/>
-    </row>
-    <row r="9" spans="1:10" x14ac:dyDescent="0.2">
+      <c r="K8" s="33"/>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.2">
       <c r="A9" s="13">
         <v>4</v>
       </c>
@@ -36579,12 +37280,15 @@
       <c r="H9" s="95">
         <v>433</v>
       </c>
-      <c r="I9" s="94">
+      <c r="I9" s="95">
+        <v>197</v>
+      </c>
+      <c r="J9" s="94">
         <v>137</v>
       </c>
-      <c r="J9" s="33"/>
-    </row>
-    <row r="10" spans="1:10" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K9" s="33"/>
+    </row>
+    <row r="10" spans="1:11" s="256" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A10" s="13">
         <v>5</v>
       </c>
@@ -36609,12 +37313,15 @@
       <c r="H10" s="95">
         <v>371</v>
       </c>
-      <c r="I10" s="94">
+      <c r="I10" s="95">
+        <v>210</v>
+      </c>
+      <c r="J10" s="94">
         <v>126</v>
       </c>
-      <c r="J10" s="33"/>
-    </row>
-    <row r="11" spans="1:10" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K10" s="33"/>
+    </row>
+    <row r="11" spans="1:11" s="256" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A11" s="13">
         <v>6</v>
       </c>
@@ -36639,12 +37346,15 @@
       <c r="H11" s="95">
         <v>364</v>
       </c>
-      <c r="I11" s="94">
+      <c r="I11" s="95">
+        <v>143</v>
+      </c>
+      <c r="J11" s="94">
         <v>99</v>
       </c>
-      <c r="J11" s="33"/>
-    </row>
-    <row r="12" spans="1:10" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="K11" s="33"/>
+    </row>
+    <row r="12" spans="1:11" s="256" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A12" s="13">
         <v>7</v>
       </c>
@@ -36669,52 +37379,102 @@
       <c r="H12" s="95">
         <v>366</v>
       </c>
-      <c r="I12" s="94">
+      <c r="I12" s="95">
+        <v>131</v>
+      </c>
+      <c r="J12" s="94">
         <v>78</v>
       </c>
-      <c r="J12" s="33"/>
-    </row>
-    <row r="13" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A13" s="42" t="s">
-        <v>36</v>
-      </c>
-      <c r="F13" s="35"/>
-      <c r="G13" s="35"/>
-      <c r="H13" s="35"/>
-      <c r="I13" s="35"/>
-      <c r="J13" s="34"/>
-    </row>
-    <row r="14" spans="1:10" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A14" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="B14" s="75"/>
-      <c r="C14" s="75"/>
-      <c r="D14" s="75"/>
-      <c r="E14" s="75"/>
-      <c r="F14" s="75"/>
-      <c r="G14" s="75"/>
-      <c r="H14" s="75"/>
-      <c r="I14" s="75"/>
-    </row>
-    <row r="15" spans="1:10" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A15" s="16" t="s">
-        <v>92</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="C16" s="78"/>
-      <c r="D16" s="78"/>
-      <c r="E16" s="78"/>
-    </row>
-    <row r="17" spans="1:5" ht="15" x14ac:dyDescent="0.2">
-      <c r="A17" s="25"/>
-      <c r="C17" s="78"/>
-      <c r="D17" s="78"/>
-      <c r="E17" s="78"/>
-    </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.2"/>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.2"/>
+      <c r="K12" s="33"/>
+    </row>
+    <row r="13" spans="1:11" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="13">
+        <v>8</v>
+      </c>
+      <c r="B13" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C13" s="94">
+        <v>351</v>
+      </c>
+      <c r="D13" s="94">
+        <v>347</v>
+      </c>
+      <c r="E13" s="94">
+        <v>343</v>
+      </c>
+      <c r="F13" s="95">
+        <v>349</v>
+      </c>
+      <c r="G13" s="95">
+        <v>310</v>
+      </c>
+      <c r="H13" s="95">
+        <v>423</v>
+      </c>
+      <c r="I13" s="95">
+        <v>121</v>
+      </c>
+      <c r="J13" s="94">
+        <v>55</v>
+      </c>
+      <c r="K13" s="33"/>
+    </row>
+    <row r="14" spans="1:11" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A14" s="42" t="s">
+        <v>35</v>
+      </c>
+      <c r="F14" s="35"/>
+      <c r="G14" s="35"/>
+      <c r="H14" s="35"/>
+      <c r="I14" s="35"/>
+      <c r="J14" s="35"/>
+      <c r="K14" s="34"/>
+    </row>
+    <row r="15" spans="1:11" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B15" s="75"/>
+      <c r="C15" s="75"/>
+      <c r="D15" s="75"/>
+      <c r="E15" s="75"/>
+      <c r="F15" s="75"/>
+      <c r="G15" s="75"/>
+      <c r="H15" s="75"/>
+      <c r="I15" s="75"/>
+      <c r="J15" s="75"/>
+    </row>
+    <row r="16" spans="1:11" s="256" customFormat="1" ht="12.75" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="127" t="s">
+        <v>162</v>
+      </c>
+      <c r="B16" s="75"/>
+      <c r="C16" s="75"/>
+      <c r="D16" s="75"/>
+      <c r="E16" s="75"/>
+      <c r="F16" s="75"/>
+      <c r="G16" s="75"/>
+      <c r="H16" s="75"/>
+      <c r="I16" s="75"/>
+      <c r="J16" s="75"/>
+    </row>
+    <row r="17" spans="1:5" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A17" s="16" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="C18" s="78"/>
+      <c r="D18" s="78"/>
+      <c r="E18" s="78"/>
+    </row>
+    <row r="19" spans="1:5" ht="15" x14ac:dyDescent="0.2">
+      <c r="A19" s="25"/>
+      <c r="C19" s="78"/>
+      <c r="D19" s="78"/>
+      <c r="E19" s="78"/>
+    </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2"/>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2"/>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2"/>
@@ -36767,6 +37527,8 @@
     <row r="69" x14ac:dyDescent="0.2"/>
     <row r="70" x14ac:dyDescent="0.2"/>
     <row r="71" x14ac:dyDescent="0.2"/>
+    <row r="72" x14ac:dyDescent="0.2"/>
+    <row r="73" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -36788,7 +37550,7 @@
       <selection activeCell="X3" sqref="X3:X4"/>
       <selection pane="topRight" activeCell="X3" sqref="X3:X4"/>
       <selection pane="bottomLeft" activeCell="X3" sqref="X3:X4"/>
-      <selection pane="bottomRight" activeCell="BD25" sqref="BD25"/>
+      <selection pane="bottomRight" activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="5.28515625" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -36814,23 +37576,24 @@
     <col min="46" max="46" width="10.85546875" style="136" customWidth="1"/>
     <col min="47" max="49" width="9.140625" style="136" bestFit="1" customWidth="1"/>
     <col min="50" max="52" width="9" style="136" bestFit="1" customWidth="1"/>
-    <col min="53" max="16384" width="5.28515625" style="136"/>
+    <col min="53" max="53" width="10.5703125" style="136" customWidth="1"/>
+    <col min="54" max="16384" width="5.28515625" style="136"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:204" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="36" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:204" x14ac:dyDescent="0.2"/>
     <row r="4" spans="1:204" ht="19.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="239"/>
       <c r="C4" s="242"/>
@@ -36981,7 +37744,9 @@
       <c r="AZ4" s="96">
         <v>7</v>
       </c>
-      <c r="BA4" s="145"/>
+      <c r="BA4" s="96">
+        <v>8</v>
+      </c>
       <c r="BB4" s="145"/>
       <c r="BC4" s="145"/>
       <c r="BD4" s="145"/>
@@ -37136,14 +37901,14 @@
     </row>
     <row r="5" spans="1:204" ht="25.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="241" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="239"/>
       <c r="C5" s="243" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="177" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E5" s="97">
         <v>43917</v>
@@ -37289,7 +38054,9 @@
       <c r="AZ5" s="97">
         <v>44246</v>
       </c>
-      <c r="BA5" s="146"/>
+      <c r="BA5" s="97">
+        <v>44253</v>
+      </c>
       <c r="BB5" s="146"/>
       <c r="BC5" s="146"/>
       <c r="BD5" s="146"/>
@@ -37444,14 +38211,14 @@
     </row>
     <row r="6" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="72">
         <f>SUM(C7:C14)</f>
-        <v>16980</v>
+        <v>17331</v>
       </c>
       <c r="D6" s="71">
         <f t="shared" ref="D6:D14" si="0">SUM(D15+D24)</f>
@@ -37624,7 +38391,7 @@
         <v>568</v>
       </c>
       <c r="AU6" s="66">
-        <f t="shared" ref="AU6:AZ6" si="4">SUM(AU7:AU14)</f>
+        <f t="shared" ref="AU6:BA6" si="4">SUM(AU7:AU14)</f>
         <v>443</v>
       </c>
       <c r="AV6" s="66">
@@ -37647,7 +38414,10 @@
         <f t="shared" si="4"/>
         <v>352</v>
       </c>
-      <c r="BA6" s="147"/>
+      <c r="BA6" s="66">
+        <f t="shared" si="4"/>
+        <v>351</v>
+      </c>
       <c r="BB6" s="147"/>
       <c r="BC6" s="147"/>
       <c r="BD6" s="147"/>
@@ -37803,11 +38573,11 @@
     <row r="7" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="69">
         <f>SUM(C16+C25)</f>
-        <v>51</v>
+        <v>53</v>
       </c>
       <c r="D7" s="64">
         <f t="shared" si="0"/>
@@ -37980,7 +38750,7 @@
         <v>1</v>
       </c>
       <c r="AU7" s="64">
-        <f t="shared" ref="AU7:AZ14" si="8">SUM(AU16+AU25)</f>
+        <f t="shared" ref="AU7:BA14" si="8">SUM(AU16+AU25)</f>
         <v>0</v>
       </c>
       <c r="AV7" s="64">
@@ -38003,7 +38773,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="BA7" s="148"/>
+      <c r="BA7" s="64">
+        <f t="shared" si="8"/>
+        <v>2</v>
+      </c>
       <c r="BB7" s="148"/>
       <c r="BC7" s="148"/>
       <c r="BD7" s="148"/>
@@ -38159,7 +38932,7 @@
     <row r="8" spans="1:204" ht="14.25" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="69">
         <f t="shared" ref="C8:C14" si="9">SUM(C17+C26)</f>
@@ -38359,7 +39132,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="BA8" s="148"/>
+      <c r="BA8" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="BB8" s="148"/>
       <c r="BC8" s="148"/>
       <c r="BD8" s="148"/>
@@ -38715,7 +39491,10 @@
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="BA9" s="148"/>
+      <c r="BA9" s="64">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
       <c r="BB9" s="148"/>
       <c r="BC9" s="148"/>
       <c r="BD9" s="148"/>
@@ -38875,7 +39654,7 @@
       </c>
       <c r="C10" s="69">
         <f t="shared" si="9"/>
-        <v>588</v>
+        <v>607</v>
       </c>
       <c r="D10" s="64">
         <f t="shared" si="0"/>
@@ -39071,7 +39850,10 @@
         <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="BA10" s="148"/>
+      <c r="BA10" s="64">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
       <c r="BB10" s="148"/>
       <c r="BC10" s="148"/>
       <c r="BD10" s="148"/>
@@ -39231,7 +40013,7 @@
       </c>
       <c r="C11" s="69">
         <f t="shared" si="9"/>
-        <v>2294</v>
+        <v>2343</v>
       </c>
       <c r="D11" s="64">
         <f t="shared" si="0"/>
@@ -39427,7 +40209,10 @@
         <f t="shared" si="8"/>
         <v>49</v>
       </c>
-      <c r="BA11" s="148"/>
+      <c r="BA11" s="64">
+        <f t="shared" si="8"/>
+        <v>49</v>
+      </c>
       <c r="BB11" s="148"/>
       <c r="BC11" s="148"/>
       <c r="BD11" s="148"/>
@@ -39587,7 +40372,7 @@
       </c>
       <c r="C12" s="69">
         <f t="shared" si="9"/>
-        <v>2831</v>
+        <v>2877</v>
       </c>
       <c r="D12" s="64">
         <f t="shared" si="0"/>
@@ -39783,7 +40568,10 @@
         <f>SUM(AZ21+AZ30)</f>
         <v>55</v>
       </c>
-      <c r="BA12" s="148"/>
+      <c r="BA12" s="64">
+        <f>SUM(BA21+BA30)</f>
+        <v>46</v>
+      </c>
       <c r="BB12" s="148"/>
       <c r="BC12" s="148"/>
       <c r="BD12" s="148"/>
@@ -39943,7 +40731,7 @@
       </c>
       <c r="C13" s="69">
         <f t="shared" si="9"/>
-        <v>4988</v>
+        <v>5099</v>
       </c>
       <c r="D13" s="64">
         <f t="shared" si="0"/>
@@ -40139,7 +40927,10 @@
         <f t="shared" si="8"/>
         <v>106</v>
       </c>
-      <c r="BA13" s="148"/>
+      <c r="BA13" s="64">
+        <f t="shared" si="8"/>
+        <v>111</v>
+      </c>
       <c r="BB13" s="148"/>
       <c r="BC13" s="148"/>
       <c r="BD13" s="148"/>
@@ -40299,7 +41090,7 @@
       </c>
       <c r="C14" s="70">
         <f t="shared" si="9"/>
-        <v>6176</v>
+        <v>6300</v>
       </c>
       <c r="D14" s="64">
         <f t="shared" si="0"/>
@@ -40495,7 +41286,10 @@
         <f t="shared" si="8"/>
         <v>131</v>
       </c>
-      <c r="BA14" s="148"/>
+      <c r="BA14" s="64">
+        <f t="shared" si="8"/>
+        <v>124</v>
+      </c>
       <c r="BB14" s="148"/>
       <c r="BC14" s="148"/>
       <c r="BD14" s="148"/>
@@ -40650,14 +41444,14 @@
     </row>
     <row r="15" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="68">
         <f t="shared" ref="C15:J15" si="18">SUM(C16:C23)</f>
-        <v>8462</v>
+        <v>8643</v>
       </c>
       <c r="D15" s="66">
         <f t="shared" si="18"/>
@@ -40830,7 +41624,7 @@
         <v>288</v>
       </c>
       <c r="AU15" s="66">
-        <f t="shared" ref="AU15:AZ15" si="22">SUM(AU16:AU23)</f>
+        <f t="shared" ref="AU15:BA15" si="22">SUM(AU16:AU23)</f>
         <v>206</v>
       </c>
       <c r="AV15" s="66">
@@ -40853,7 +41647,10 @@
         <f t="shared" si="22"/>
         <v>169</v>
       </c>
-      <c r="BA15" s="147"/>
+      <c r="BA15" s="66">
+        <f t="shared" si="22"/>
+        <v>181</v>
+      </c>
       <c r="BB15" s="147"/>
       <c r="BC15" s="147"/>
       <c r="BD15" s="147"/>
@@ -41009,11 +41806,11 @@
     <row r="16" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="69">
-        <f t="shared" ref="C16:C23" si="23">SUM(D16:AZ16)</f>
-        <v>25</v>
+        <f t="shared" ref="C16:C23" si="23">SUM(D16:BA16)</f>
+        <v>27</v>
       </c>
       <c r="D16" s="69">
         <v>0</v>
@@ -41162,7 +41959,9 @@
       <c r="AZ16" s="64">
         <v>1</v>
       </c>
-      <c r="BA16" s="148"/>
+      <c r="BA16" s="64">
+        <v>2</v>
+      </c>
       <c r="BB16" s="148"/>
       <c r="BC16" s="148"/>
       <c r="BD16" s="148"/>
@@ -41318,7 +42117,7 @@
     <row r="17" spans="1:204" ht="10.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="69">
         <f t="shared" si="23"/>
@@ -41471,7 +42270,9 @@
       <c r="AZ17" s="64">
         <v>1</v>
       </c>
-      <c r="BA17" s="148"/>
+      <c r="BA17" s="64">
+        <v>0</v>
+      </c>
       <c r="BB17" s="148"/>
       <c r="BC17" s="148"/>
       <c r="BD17" s="148"/>
@@ -41780,7 +42581,9 @@
       <c r="AZ18" s="64">
         <v>1</v>
       </c>
-      <c r="BA18" s="148"/>
+      <c r="BA18" s="64">
+        <v>0</v>
+      </c>
       <c r="BB18" s="148"/>
       <c r="BC18" s="148"/>
       <c r="BD18" s="148"/>
@@ -41940,7 +42743,7 @@
       </c>
       <c r="C19" s="69">
         <f t="shared" si="23"/>
-        <v>400</v>
+        <v>415</v>
       </c>
       <c r="D19" s="69">
         <v>0</v>
@@ -42089,7 +42892,9 @@
       <c r="AZ19" s="64">
         <v>7</v>
       </c>
-      <c r="BA19" s="148"/>
+      <c r="BA19" s="64">
+        <v>15</v>
+      </c>
       <c r="BB19" s="148"/>
       <c r="BC19" s="148"/>
       <c r="BD19" s="148"/>
@@ -42249,7 +43054,7 @@
       </c>
       <c r="C20" s="69">
         <f t="shared" si="23"/>
-        <v>1354</v>
+        <v>1387</v>
       </c>
       <c r="D20" s="69">
         <v>6</v>
@@ -42398,7 +43203,9 @@
       <c r="AZ20" s="64">
         <v>27</v>
       </c>
-      <c r="BA20" s="148"/>
+      <c r="BA20" s="64">
+        <v>33</v>
+      </c>
       <c r="BB20" s="148"/>
       <c r="BC20" s="148"/>
       <c r="BD20" s="148"/>
@@ -42558,7 +43365,7 @@
       </c>
       <c r="C21" s="69">
         <f t="shared" si="23"/>
-        <v>1629</v>
+        <v>1645</v>
       </c>
       <c r="D21" s="69">
         <v>9</v>
@@ -42707,7 +43514,9 @@
       <c r="AZ21" s="64">
         <v>26</v>
       </c>
-      <c r="BA21" s="148"/>
+      <c r="BA21" s="64">
+        <v>16</v>
+      </c>
       <c r="BB21" s="148"/>
       <c r="BC21" s="148"/>
       <c r="BD21" s="148"/>
@@ -42867,7 +43676,7 @@
       </c>
       <c r="C22" s="69">
         <f t="shared" si="23"/>
-        <v>2623</v>
+        <v>2685</v>
       </c>
       <c r="D22" s="69">
         <v>15</v>
@@ -43016,7 +43825,9 @@
       <c r="AZ22" s="64">
         <v>51</v>
       </c>
-      <c r="BA22" s="148"/>
+      <c r="BA22" s="64">
+        <v>62</v>
+      </c>
       <c r="BB22" s="148"/>
       <c r="BC22" s="148"/>
       <c r="BD22" s="148"/>
@@ -43176,7 +43987,7 @@
       </c>
       <c r="C23" s="70">
         <f t="shared" si="23"/>
-        <v>2402</v>
+        <v>2455</v>
       </c>
       <c r="D23" s="70">
         <v>12</v>
@@ -43325,7 +44136,9 @@
       <c r="AZ23" s="64">
         <v>55</v>
       </c>
-      <c r="BA23" s="148"/>
+      <c r="BA23" s="64">
+        <v>53</v>
+      </c>
       <c r="BB23" s="148"/>
       <c r="BC23" s="148"/>
       <c r="BD23" s="148"/>
@@ -43483,11 +44296,11 @@
         <v>12</v>
       </c>
       <c r="B24" s="67" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="68">
         <f>SUM(C25:C32)</f>
-        <v>8518</v>
+        <v>8688</v>
       </c>
       <c r="D24" s="68">
         <f>SUM(D25:D32)</f>
@@ -43660,7 +44473,7 @@
         <v>280</v>
       </c>
       <c r="AU24" s="66">
-        <f t="shared" ref="AU24:AZ24" si="27">SUM(AU25:AU32)</f>
+        <f t="shared" ref="AU24:BA24" si="27">SUM(AU25:AU32)</f>
         <v>237</v>
       </c>
       <c r="AV24" s="66">
@@ -43683,7 +44496,10 @@
         <f t="shared" si="27"/>
         <v>183</v>
       </c>
-      <c r="BA24" s="147"/>
+      <c r="BA24" s="66">
+        <f t="shared" si="27"/>
+        <v>170</v>
+      </c>
       <c r="BB24" s="147"/>
       <c r="BC24" s="147"/>
       <c r="BD24" s="147"/>
@@ -43839,10 +44655,10 @@
     <row r="25" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="64">
-        <f t="shared" ref="C25:C32" si="28">SUM(D25:AZ25)</f>
+        <f t="shared" ref="C25:C32" si="28">SUM(D25:BA25)</f>
         <v>26</v>
       </c>
       <c r="D25" s="64">
@@ -43992,7 +44808,9 @@
       <c r="AZ25" s="64">
         <v>0</v>
       </c>
-      <c r="BA25" s="148"/>
+      <c r="BA25" s="64">
+        <v>0</v>
+      </c>
       <c r="BB25" s="148"/>
       <c r="BC25" s="148"/>
       <c r="BD25" s="148"/>
@@ -44148,7 +44966,7 @@
     <row r="26" spans="1:204" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="64">
         <f t="shared" si="28"/>
@@ -44301,7 +45119,9 @@
       <c r="AZ26" s="64">
         <v>0</v>
       </c>
-      <c r="BA26" s="148"/>
+      <c r="BA26" s="64">
+        <v>0</v>
+      </c>
       <c r="BB26" s="148"/>
       <c r="BC26" s="148"/>
       <c r="BD26" s="148"/>
@@ -44610,7 +45430,9 @@
       <c r="AZ27" s="64">
         <v>0</v>
       </c>
-      <c r="BA27" s="148"/>
+      <c r="BA27" s="64">
+        <v>0</v>
+      </c>
       <c r="BB27" s="148"/>
       <c r="BC27" s="148"/>
       <c r="BD27" s="148"/>
@@ -44770,7 +45592,7 @@
       </c>
       <c r="C28" s="64">
         <f t="shared" si="28"/>
-        <v>188</v>
+        <v>192</v>
       </c>
       <c r="D28" s="64">
         <v>0</v>
@@ -44919,7 +45741,9 @@
       <c r="AZ28" s="64">
         <v>1</v>
       </c>
-      <c r="BA28" s="148"/>
+      <c r="BA28" s="64">
+        <v>4</v>
+      </c>
       <c r="BB28" s="148"/>
       <c r="BC28" s="148"/>
       <c r="BD28" s="148"/>
@@ -45079,7 +45903,7 @@
       </c>
       <c r="C29" s="64">
         <f t="shared" si="28"/>
-        <v>940</v>
+        <v>956</v>
       </c>
       <c r="D29" s="64">
         <v>8</v>
@@ -45228,7 +46052,9 @@
       <c r="AZ29" s="64">
         <v>22</v>
       </c>
-      <c r="BA29" s="148"/>
+      <c r="BA29" s="64">
+        <v>16</v>
+      </c>
       <c r="BB29" s="148"/>
       <c r="BC29" s="148"/>
       <c r="BD29" s="148"/>
@@ -45388,7 +46214,7 @@
       </c>
       <c r="C30" s="64">
         <f t="shared" si="28"/>
-        <v>1202</v>
+        <v>1232</v>
       </c>
       <c r="D30" s="64">
         <v>8</v>
@@ -45537,7 +46363,9 @@
       <c r="AZ30" s="64">
         <v>29</v>
       </c>
-      <c r="BA30" s="148"/>
+      <c r="BA30" s="64">
+        <v>30</v>
+      </c>
       <c r="BB30" s="148"/>
       <c r="BC30" s="148"/>
       <c r="BD30" s="148"/>
@@ -45697,7 +46525,7 @@
       </c>
       <c r="C31" s="64">
         <f t="shared" si="28"/>
-        <v>2365</v>
+        <v>2414</v>
       </c>
       <c r="D31" s="64">
         <v>14</v>
@@ -45846,7 +46674,9 @@
       <c r="AZ31" s="64">
         <v>55</v>
       </c>
-      <c r="BA31" s="148"/>
+      <c r="BA31" s="64">
+        <v>49</v>
+      </c>
       <c r="BB31" s="148"/>
       <c r="BC31" s="148"/>
       <c r="BD31" s="148"/>
@@ -46006,7 +46836,7 @@
       </c>
       <c r="C32" s="65">
         <f t="shared" si="28"/>
-        <v>3774</v>
+        <v>3845</v>
       </c>
       <c r="D32" s="65">
         <v>32</v>
@@ -46155,7 +46985,9 @@
       <c r="AZ32" s="65">
         <v>76</v>
       </c>
-      <c r="BA32" s="148"/>
+      <c r="BA32" s="65">
+        <v>71</v>
+      </c>
       <c r="BB32" s="148"/>
       <c r="BC32" s="148"/>
       <c r="BD32" s="148"/>
@@ -46317,7 +47149,7 @@
     </row>
     <row r="34" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="37" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="43"/>
       <c r="C34" s="117"/>
@@ -46325,7 +47157,7 @@
     </row>
     <row r="35" spans="1:23" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A35" s="127" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="75"/>
       <c r="C35" s="75"/>
@@ -46358,12 +47190,12 @@
   <sheetPr codeName="Sheet6">
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P72"/>
+  <dimension ref="A1:P73"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <pane ySplit="5" topLeftCell="A46" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="X3" sqref="X3:X4"/>
-      <selection pane="bottomLeft" activeCell="E54" sqref="E6:E54"/>
+      <selection pane="bottomLeft" activeCell="I35" sqref="I35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -46388,12 +47220,12 @@
   <sheetData>
     <row r="1" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:16" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
       <c r="B2" s="40"/>
       <c r="C2" s="40"/>
@@ -46437,7 +47269,7 @@
       <c r="F4" s="245"/>
       <c r="G4" s="245"/>
       <c r="H4" s="246" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="245"/>
       <c r="J4" s="245"/>
@@ -46454,37 +47286,37 @@
         <v>4</v>
       </c>
       <c r="C5" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="98" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="99" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="98" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="99" t="s">
+      <c r="G5" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="H5" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="I5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="J5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="K5" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="L5" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="M5" s="100" t="s">
         <v>54</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="100" t="s">
-        <v>56</v>
       </c>
       <c r="N5" s="93" t="s">
         <v>11</v>
@@ -46495,7 +47327,7 @@
         <v>11</v>
       </c>
       <c r="B6" s="198" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="C6" s="197">
         <v>14</v>
@@ -48390,7 +49222,7 @@
     </row>
     <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="14">
         <v>44197</v>
@@ -48523,7 +49355,7 @@
         <v>32</v>
       </c>
       <c r="N49" s="113">
-        <f t="shared" ref="N49:N54" si="2">SUM(C49:M49)</f>
+        <f t="shared" ref="N49:N55" si="2">SUM(C49:M49)</f>
         <v>443</v>
       </c>
       <c r="O49" s="144"/>
@@ -48756,52 +49588,79 @@
         <v>352</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
-      <c r="A55" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="165"/>
-      <c r="L55" s="165"/>
-      <c r="M55" s="165"/>
-      <c r="N55" s="165"/>
-      <c r="O55" s="144"/>
-      <c r="P55" s="144"/>
-    </row>
-    <row r="56" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
+    <row r="55" spans="1:16" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>8</v>
+      </c>
+      <c r="B55" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C55" s="13">
+        <v>26</v>
+      </c>
+      <c r="D55" s="13">
+        <v>27</v>
+      </c>
+      <c r="E55" s="13">
+        <v>49</v>
+      </c>
+      <c r="F55" s="13">
+        <v>56</v>
+      </c>
+      <c r="G55" s="13">
+        <v>25</v>
+      </c>
+      <c r="H55" s="13">
         <v>36</v>
       </c>
+      <c r="I55" s="13">
+        <v>20</v>
+      </c>
+      <c r="J55" s="13">
+        <v>20</v>
+      </c>
+      <c r="K55" s="13">
+        <v>31</v>
+      </c>
+      <c r="L55" s="13">
+        <v>26</v>
+      </c>
+      <c r="M55" s="13">
+        <v>35</v>
+      </c>
+      <c r="N55" s="113">
+        <f t="shared" si="2"/>
+        <v>351</v>
+      </c>
+    </row>
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+      <c r="A56" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="166"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="165"/>
+      <c r="O56" s="144"/>
+      <c r="P56" s="144"/>
     </row>
     <row r="57" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="127" t="s">
-        <v>86</v>
-      </c>
-      <c r="B57" s="127"/>
-      <c r="C57" s="127"/>
-      <c r="D57" s="127"/>
-      <c r="E57" s="127"/>
-      <c r="F57" s="127"/>
-      <c r="G57" s="127"/>
-      <c r="H57" s="127"/>
-      <c r="I57" s="127"/>
-      <c r="J57" s="127"/>
-      <c r="K57" s="127"/>
-      <c r="L57" s="127"/>
-      <c r="M57" s="127"/>
-      <c r="N57" s="127"/>
+      <c r="A57" s="42" t="s">
+        <v>35</v>
+      </c>
     </row>
     <row r="58" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A58" s="127" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="B58" s="127"/>
       <c r="C58" s="127"/>
@@ -48817,7 +49676,24 @@
       <c r="M58" s="127"/>
       <c r="N58" s="127"/>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2"/>
+    <row r="59" spans="1:16" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A59" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="127"/>
+    </row>
     <row r="60" spans="1:16" x14ac:dyDescent="0.2"/>
     <row r="61" spans="1:16" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:16" x14ac:dyDescent="0.2"/>
@@ -48831,6 +49707,7 @@
     <row r="70" x14ac:dyDescent="0.2"/>
     <row r="71" x14ac:dyDescent="0.2"/>
     <row r="72" x14ac:dyDescent="0.2"/>
+    <row r="73" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -48845,11 +49722,11 @@
   <sheetPr>
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:I69"/>
+  <dimension ref="A1:I70"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="E19" sqref="E19"/>
+      <selection pane="bottomLeft" activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -48866,12 +49743,12 @@
   <sheetData>
     <row r="1" spans="1:9" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B2" s="2"/>
     </row>
@@ -48881,25 +49758,25 @@
     </row>
     <row r="4" spans="1:9" s="11" customFormat="1" ht="36" x14ac:dyDescent="0.2">
       <c r="A4" s="158" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B4" s="160" t="s">
         <v>4</v>
       </c>
       <c r="C4" s="159" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D4" s="159" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="E4" s="159" t="s">
+        <v>30</v>
+      </c>
+      <c r="F4" s="159" t="s">
+        <v>33</v>
+      </c>
+      <c r="G4" s="161" t="s">
         <v>31</v>
-      </c>
-      <c r="F4" s="159" t="s">
-        <v>34</v>
-      </c>
-      <c r="G4" s="161" t="s">
-        <v>32</v>
       </c>
       <c r="H4" s="158" t="s">
         <v>11</v>
@@ -48984,7 +49861,7 @@
         <v>9</v>
       </c>
       <c r="H7" s="163">
-        <f>SUM(C7:G7)</f>
+        <f t="shared" ref="H7:H12" si="1">SUM(C7:G7)</f>
         <v>474</v>
       </c>
       <c r="I7" s="8"/>
@@ -49012,7 +49889,7 @@
         <v>10</v>
       </c>
       <c r="H8" s="163">
-        <f>SUM(C8:G8)</f>
+        <f t="shared" si="1"/>
         <v>437</v>
       </c>
       <c r="I8" s="8"/>
@@ -49040,7 +49917,7 @@
         <v>11</v>
       </c>
       <c r="H9" s="163">
-        <f>SUM(C9:G9)</f>
+        <f t="shared" si="1"/>
         <v>462</v>
       </c>
       <c r="I9" s="8"/>
@@ -49068,7 +49945,7 @@
         <v>7</v>
       </c>
       <c r="H10" s="163">
-        <f>SUM(C10:G10)</f>
+        <f t="shared" si="1"/>
         <v>382</v>
       </c>
       <c r="I10" s="8"/>
@@ -49096,60 +49973,87 @@
         <v>5</v>
       </c>
       <c r="H11" s="163">
-        <f>SUM(C11:G11)</f>
+        <f t="shared" si="1"/>
         <v>352</v>
       </c>
       <c r="I11" s="8"/>
     </row>
-    <row r="12" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A12" s="42" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A13" s="127" t="s">
-        <v>30</v>
-      </c>
-      <c r="B13" s="75"/>
-      <c r="C13" s="75"/>
-      <c r="D13" s="75"/>
-      <c r="E13" s="75"/>
-      <c r="F13" s="75"/>
-      <c r="G13" s="75"/>
-      <c r="H13" s="75"/>
-      <c r="I13" s="75"/>
-    </row>
-    <row r="14" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A14" s="16" t="s">
-        <v>97</v>
-      </c>
-    </row>
-    <row r="15" spans="1:9" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:9" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="13">
+        <v>8</v>
+      </c>
+      <c r="B12" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C12" s="94">
+        <v>166</v>
+      </c>
+      <c r="D12" s="94">
+        <v>52</v>
+      </c>
+      <c r="E12" s="94">
+        <v>9</v>
+      </c>
+      <c r="F12" s="94">
+        <v>114</v>
+      </c>
+      <c r="G12" s="95">
+        <v>10</v>
+      </c>
+      <c r="H12" s="163">
+        <f t="shared" si="1"/>
+        <v>351</v>
+      </c>
+      <c r="I12" s="8"/>
+    </row>
+    <row r="13" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A13" s="42" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:9" ht="24.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="127" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="75"/>
+      <c r="C14" s="75"/>
+      <c r="D14" s="75"/>
+      <c r="E14" s="75"/>
+      <c r="F14" s="75"/>
+      <c r="G14" s="75"/>
+      <c r="H14" s="75"/>
+      <c r="I14" s="75"/>
+    </row>
+    <row r="15" spans="1:9" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A15" s="16" t="s">
-        <v>98</v>
-      </c>
-      <c r="C15" s="41"/>
-    </row>
-    <row r="16" spans="1:9" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
-      <c r="A16" s="40"/>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="16" spans="1:9" s="10" customFormat="1" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A16" s="16" t="s">
+        <v>96</v>
+      </c>
       <c r="C16" s="41"/>
     </row>
-    <row r="17" x14ac:dyDescent="0.2"/>
-    <row r="18" x14ac:dyDescent="0.2"/>
-    <row r="19" x14ac:dyDescent="0.2"/>
-    <row r="20" x14ac:dyDescent="0.2"/>
-    <row r="21" x14ac:dyDescent="0.2"/>
-    <row r="22" x14ac:dyDescent="0.2"/>
-    <row r="23" x14ac:dyDescent="0.2"/>
-    <row r="24" x14ac:dyDescent="0.2"/>
-    <row r="25" x14ac:dyDescent="0.2"/>
-    <row r="26" x14ac:dyDescent="0.2"/>
-    <row r="27" x14ac:dyDescent="0.2"/>
-    <row r="28" x14ac:dyDescent="0.2"/>
-    <row r="29" x14ac:dyDescent="0.2"/>
-    <row r="30" x14ac:dyDescent="0.2"/>
-    <row r="31" x14ac:dyDescent="0.2"/>
-    <row r="32" x14ac:dyDescent="0.2"/>
+    <row r="17" spans="1:3" s="10" customFormat="1" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="40"/>
+      <c r="C17" s="41"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.2"/>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.2"/>
     <row r="33" x14ac:dyDescent="0.2"/>
     <row r="34" x14ac:dyDescent="0.2"/>
     <row r="35" x14ac:dyDescent="0.2"/>
@@ -49187,6 +50091,7 @@
     <row r="67" x14ac:dyDescent="0.2"/>
     <row r="68" x14ac:dyDescent="0.2"/>
     <row r="69" x14ac:dyDescent="0.2"/>
+    <row r="70" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
@@ -49200,13 +50105,13 @@
   <sheetPr codeName="Sheet7">
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:AZ38"/>
+  <dimension ref="A1:BA38"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane xSplit="3" ySplit="5" topLeftCell="AT6" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="D1" sqref="D1"/>
       <selection pane="bottomLeft" activeCell="A6" sqref="A6"/>
-      <selection pane="bottomRight" activeCell="BB14" sqref="BB14"/>
+      <selection pane="bottomRight" activeCell="AY28" sqref="AY28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -49230,21 +50135,21 @@
     <col min="23" max="25" width="9.140625" style="136" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:52" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:53" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="2" spans="1:52" ht="14.25" x14ac:dyDescent="0.2">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="1:53" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="G2" s="199"/>
     </row>
-    <row r="3" spans="1:52" x14ac:dyDescent="0.2"/>
-    <row r="4" spans="1:52" s="114" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:53" x14ac:dyDescent="0.2"/>
+    <row r="4" spans="1:53" s="114" customFormat="1" ht="17.100000000000001" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A4" s="240" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B4" s="247"/>
       <c r="C4" s="242"/>
@@ -49395,14 +50300,17 @@
       <c r="AZ4" s="96">
         <v>7</v>
       </c>
-    </row>
-    <row r="5" spans="1:52" s="114" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="BA4" s="96">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:53" s="114" customFormat="1" ht="28.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A5" s="240" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B5" s="248"/>
       <c r="C5" s="243" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="D5" s="200">
         <v>43910</v>
@@ -49551,17 +50459,20 @@
       <c r="AZ5" s="97">
         <v>44246</v>
       </c>
-    </row>
-    <row r="6" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA5" s="97">
+        <v>44253</v>
+      </c>
+    </row>
+    <row r="6" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A6" s="49" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="B6" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C6" s="51">
         <f>SUM(C7:C14)</f>
-        <v>2751</v>
+        <v>2806</v>
       </c>
       <c r="D6" s="201">
         <f>SUM(D7:D14)</f>
@@ -49735,7 +50646,7 @@
         <v>145</v>
       </c>
       <c r="AU6" s="71">
-        <f t="shared" ref="AU6:AZ6" si="3">SUM(AU7:AU14)</f>
+        <f t="shared" ref="AU6:BA6" si="3">SUM(AU7:AU14)</f>
         <v>153</v>
       </c>
       <c r="AV6" s="71">
@@ -49758,11 +50669,15 @@
         <f t="shared" si="3"/>
         <v>78</v>
       </c>
-    </row>
-    <row r="7" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA6" s="71">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="7" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A7" s="52"/>
       <c r="B7" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C7" s="54">
         <f>C16+C25</f>
@@ -49940,7 +50855,7 @@
         <v>0</v>
       </c>
       <c r="AU7" s="64">
-        <f t="shared" ref="AU7:AZ14" si="6">SUM(AU16+AU25)</f>
+        <f t="shared" ref="AU7:BA14" si="6">SUM(AU16+AU25)</f>
         <v>0</v>
       </c>
       <c r="AV7" s="64">
@@ -49963,11 +50878,15 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="8" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA7" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A8" s="52"/>
       <c r="B8" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C8" s="54">
         <f t="shared" ref="C8:C14" si="7">C17+C26</f>
@@ -50168,8 +51087,12 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="9" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA8" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A9" s="52"/>
       <c r="B9" s="57" t="s">
         <v>5</v>
@@ -50373,15 +51296,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="10" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA9" s="64">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A10" s="52"/>
       <c r="B10" s="53" t="s">
         <v>6</v>
       </c>
       <c r="C10" s="54">
         <f t="shared" si="7"/>
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="D10" s="55">
         <f t="shared" si="8"/>
@@ -50578,15 +51505,19 @@
         <f t="shared" si="6"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="11" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA10" s="64">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A11" s="52"/>
       <c r="B11" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C11" s="54">
         <f t="shared" si="7"/>
-        <v>223</v>
+        <v>227</v>
       </c>
       <c r="D11" s="55">
         <f t="shared" si="8"/>
@@ -50783,15 +51714,19 @@
         <f t="shared" si="6"/>
         <v>9</v>
       </c>
-    </row>
-    <row r="12" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA11" s="64">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+    </row>
+    <row r="12" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A12" s="52"/>
       <c r="B12" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C12" s="54">
         <f t="shared" si="7"/>
-        <v>395</v>
+        <v>406</v>
       </c>
       <c r="D12" s="55">
         <f t="shared" si="8"/>
@@ -50988,15 +51923,19 @@
         <f t="shared" si="6"/>
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA12" s="64">
+        <f t="shared" si="6"/>
+        <v>11</v>
+      </c>
+    </row>
+    <row r="13" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A13" s="52"/>
       <c r="B13" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C13" s="54">
         <f t="shared" si="7"/>
-        <v>936</v>
+        <v>955</v>
       </c>
       <c r="D13" s="55">
         <f t="shared" si="8"/>
@@ -51193,15 +52132,19 @@
         <f t="shared" si="6"/>
         <v>22</v>
       </c>
-    </row>
-    <row r="14" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA13" s="64">
+        <f t="shared" si="6"/>
+        <v>19</v>
+      </c>
+    </row>
+    <row r="14" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A14" s="59"/>
       <c r="B14" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C14" s="61">
         <f t="shared" si="7"/>
-        <v>1177</v>
+        <v>1197</v>
       </c>
       <c r="D14" s="62">
         <f t="shared" si="8"/>
@@ -51398,17 +52341,21 @@
         <f t="shared" si="6"/>
         <v>36</v>
       </c>
-    </row>
-    <row r="15" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA14" s="64">
+        <f t="shared" si="6"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="15" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A15" s="49" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B15" s="50" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C15" s="51">
         <f>SUM(C16:C23)</f>
-        <v>1396</v>
+        <v>1425</v>
       </c>
       <c r="D15" s="201">
         <f>SUM(D16:D23)</f>
@@ -51582,7 +52529,7 @@
         <v>78</v>
       </c>
       <c r="AU15" s="66">
-        <f t="shared" ref="AU15:AZ15" si="20">SUM(AU16:AU23)</f>
+        <f t="shared" ref="AU15:BA15" si="20">SUM(AU16:AU23)</f>
         <v>83</v>
       </c>
       <c r="AV15" s="66">
@@ -51602,17 +52549,21 @@
         <v>54</v>
       </c>
       <c r="AZ15" s="66">
+        <f>SUM(AZ16:AZ23)</f>
+        <v>46</v>
+      </c>
+      <c r="BA15" s="66">
         <f t="shared" si="20"/>
-        <v>46</v>
-      </c>
-    </row>
-    <row r="16" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="16" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A16" s="52"/>
       <c r="B16" s="53" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C16" s="54">
-        <f t="shared" ref="C16:C23" si="21">SUM(D16:AZ16)</f>
+        <f t="shared" ref="C16:C23" si="21">SUM(D16:BA16)</f>
         <v>0</v>
       </c>
       <c r="D16" s="55">
@@ -51762,11 +52713,14 @@
       <c r="AZ16" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="17" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA16" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A17" s="52"/>
       <c r="B17" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C17" s="54">
         <f t="shared" si="21"/>
@@ -51919,8 +52873,11 @@
       <c r="AZ17" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="18" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA17" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A18" s="52"/>
       <c r="B18" s="57" t="s">
         <v>5</v>
@@ -52076,8 +53033,11 @@
       <c r="AZ18" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="19" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA18" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A19" s="52"/>
       <c r="B19" s="53" t="s">
         <v>6</v>
@@ -52233,15 +53193,18 @@
       <c r="AZ19" s="64">
         <v>0</v>
       </c>
-    </row>
-    <row r="20" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA19" s="64">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A20" s="52"/>
       <c r="B20" s="53" t="s">
         <v>7</v>
       </c>
       <c r="C20" s="54">
         <f t="shared" si="21"/>
-        <v>134</v>
+        <v>138</v>
       </c>
       <c r="D20" s="55">
         <v>0</v>
@@ -52390,15 +53353,18 @@
       <c r="AZ20" s="64">
         <v>5</v>
       </c>
-    </row>
-    <row r="21" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA20" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A21" s="52"/>
       <c r="B21" s="53" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="54">
         <f t="shared" si="21"/>
-        <v>240</v>
+        <v>244</v>
       </c>
       <c r="D21" s="55">
         <v>0</v>
@@ -52547,15 +53513,18 @@
       <c r="AZ21" s="64">
         <v>8</v>
       </c>
-    </row>
-    <row r="22" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA21" s="64">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A22" s="52"/>
       <c r="B22" s="58" t="s">
         <v>9</v>
       </c>
       <c r="C22" s="54">
         <f t="shared" si="21"/>
-        <v>530</v>
+        <v>542</v>
       </c>
       <c r="D22" s="55">
         <v>1</v>
@@ -52704,15 +53673,18 @@
       <c r="AZ22" s="64">
         <v>14</v>
       </c>
-    </row>
-    <row r="23" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA22" s="64">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="23" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A23" s="59"/>
       <c r="B23" s="60" t="s">
         <v>10</v>
       </c>
       <c r="C23" s="61">
         <f t="shared" si="21"/>
-        <v>484</v>
+        <v>493</v>
       </c>
       <c r="D23" s="62">
         <v>0</v>
@@ -52861,20 +53833,23 @@
       <c r="AZ23" s="64">
         <v>19</v>
       </c>
-    </row>
-    <row r="24" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA23" s="64">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A24" s="49" t="s">
         <v>12</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="C24" s="51">
         <f>SUM(C25:C32)</f>
-        <v>1355</v>
+        <v>1381</v>
       </c>
       <c r="D24" s="51">
-        <f t="shared" ref="D24:AZ24" si="22">SUM(D25:D32)</f>
+        <f t="shared" ref="D24:BA24" si="22">SUM(D25:D32)</f>
         <v>0</v>
       </c>
       <c r="E24" s="51">
@@ -53069,14 +54044,18 @@
         <f t="shared" si="22"/>
         <v>32</v>
       </c>
-    </row>
-    <row r="25" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA24" s="51">
+        <f t="shared" si="22"/>
+        <v>26</v>
+      </c>
+    </row>
+    <row r="25" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A25" s="52"/>
       <c r="B25" s="152" t="s">
-        <v>58</v>
+        <v>56</v>
       </c>
       <c r="C25" s="54">
-        <f t="shared" ref="C25:C32" si="23">SUM(D25:AZ25)</f>
+        <f t="shared" ref="C25:C32" si="23">SUM(D25:BA25)</f>
         <v>0</v>
       </c>
       <c r="D25" s="54">
@@ -53268,18 +54247,22 @@
         <v>0</v>
       </c>
       <c r="AY25" s="54">
-        <f t="shared" ref="AY25:AZ27" si="71">SUM(AZ25:CT25)</f>
+        <f t="shared" ref="AY25:BA27" si="71">SUM(AZ25:CT25)</f>
         <v>0</v>
       </c>
       <c r="AZ25" s="54">
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="26" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA25" s="54">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="26" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A26" s="52"/>
       <c r="B26" s="153" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C26" s="54">
         <f t="shared" si="23"/>
@@ -53434,8 +54417,12 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="27" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA26" s="54">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A27" s="52"/>
       <c r="B27" s="154" t="s">
         <v>5</v>
@@ -53593,15 +54580,19 @@
         <f t="shared" si="71"/>
         <v>0</v>
       </c>
-    </row>
-    <row r="28" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA27" s="54">
+        <f t="shared" si="71"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="28" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A28" s="52"/>
       <c r="B28" s="152" t="s">
         <v>6</v>
       </c>
       <c r="C28" s="54">
         <f t="shared" si="23"/>
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D28" s="202">
         <v>0</v>
@@ -53750,8 +54741,11 @@
       <c r="AZ28" s="54">
         <v>0</v>
       </c>
-    </row>
-    <row r="29" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA28" s="54">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A29" s="52"/>
       <c r="B29" s="152" t="s">
         <v>7</v>
@@ -53907,15 +54901,18 @@
       <c r="AZ29" s="54">
         <v>4</v>
       </c>
-    </row>
-    <row r="30" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA29" s="54">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="30" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A30" s="52"/>
       <c r="B30" s="152" t="s">
         <v>8</v>
       </c>
       <c r="C30" s="54">
         <f t="shared" si="23"/>
-        <v>155</v>
+        <v>162</v>
       </c>
       <c r="D30" s="202">
         <v>0</v>
@@ -54064,15 +55061,18 @@
       <c r="AZ30" s="54">
         <v>3</v>
       </c>
-    </row>
-    <row r="31" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA30" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A31" s="52"/>
       <c r="B31" s="155" t="s">
         <v>9</v>
       </c>
       <c r="C31" s="54">
         <f t="shared" si="23"/>
-        <v>406</v>
+        <v>413</v>
       </c>
       <c r="D31" s="202">
         <v>0</v>
@@ -54221,15 +55221,18 @@
       <c r="AZ31" s="54">
         <v>8</v>
       </c>
-    </row>
-    <row r="32" spans="1:52" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
+      <c r="BA31" s="54">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32" spans="1:53" s="114" customFormat="1" ht="12" x14ac:dyDescent="0.2">
       <c r="A32" s="59"/>
       <c r="B32" s="156" t="s">
         <v>10</v>
       </c>
       <c r="C32" s="61">
         <f t="shared" si="23"/>
-        <v>693</v>
+        <v>704</v>
       </c>
       <c r="D32" s="203">
         <v>0</v>
@@ -54377,6 +55380,9 @@
       </c>
       <c r="AZ32" s="62">
         <v>17</v>
+      </c>
+      <c r="BA32" s="62">
+        <v>11</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.2">
@@ -54385,7 +55391,7 @@
     </row>
     <row r="34" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A34" s="42" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B34" s="47"/>
       <c r="C34" s="117"/>
@@ -54393,7 +55399,7 @@
     </row>
     <row r="35" spans="1:13" ht="12.6" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A35" s="74" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35" s="74"/>
       <c r="C35" s="74"/>
@@ -54410,7 +55416,7 @@
     </row>
     <row r="36" spans="1:13" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A36" s="76" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="B36" s="76"/>
       <c r="C36" s="76"/>
@@ -54441,12 +55447,12 @@
   <sheetPr codeName="Sheet8">
     <tabColor theme="3" tint="0.59999389629810485"/>
   </sheetPr>
-  <dimension ref="A1:P73"/>
+  <dimension ref="A1:P74"/>
   <sheetViews>
     <sheetView showGridLines="0" workbookViewId="0">
       <pane ySplit="5" topLeftCell="A48" activePane="bottomLeft" state="frozen"/>
       <selection activeCell="E21" sqref="E21"/>
-      <selection pane="bottomLeft" activeCell="M56" sqref="M56"/>
+      <selection pane="bottomLeft" activeCell="L55" sqref="L55"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="0" defaultRowHeight="12.75" zeroHeight="1" x14ac:dyDescent="0.2"/>
@@ -54469,12 +55475,12 @@
   <sheetData>
     <row r="1" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A1" s="118" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
     </row>
     <row r="2" spans="1:14" ht="14.25" x14ac:dyDescent="0.2">
       <c r="A2" s="39" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.2"/>
@@ -54486,7 +55492,7 @@
       <c r="F4" s="245"/>
       <c r="G4" s="245"/>
       <c r="H4" s="246" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="I4" s="245"/>
       <c r="J4" s="245"/>
@@ -54503,37 +55509,37 @@
         <v>4</v>
       </c>
       <c r="C5" s="93" t="s">
+        <v>45</v>
+      </c>
+      <c r="D5" s="93" t="s">
+        <v>55</v>
+      </c>
+      <c r="E5" s="93" t="s">
+        <v>46</v>
+      </c>
+      <c r="F5" s="93" t="s">
         <v>47</v>
       </c>
-      <c r="D5" s="93" t="s">
-        <v>57</v>
-      </c>
-      <c r="E5" s="93" t="s">
+      <c r="G5" s="93" t="s">
         <v>48</v>
       </c>
-      <c r="F5" s="93" t="s">
+      <c r="H5" s="93" t="s">
         <v>49</v>
       </c>
-      <c r="G5" s="93" t="s">
+      <c r="I5" s="93" t="s">
         <v>50</v>
       </c>
-      <c r="H5" s="93" t="s">
+      <c r="J5" s="93" t="s">
         <v>51</v>
       </c>
-      <c r="I5" s="93" t="s">
+      <c r="K5" s="93" t="s">
         <v>52</v>
       </c>
-      <c r="J5" s="93" t="s">
+      <c r="L5" s="93" t="s">
         <v>53</v>
       </c>
-      <c r="K5" s="93" t="s">
+      <c r="M5" s="100" t="s">
         <v>54</v>
-      </c>
-      <c r="L5" s="93" t="s">
-        <v>55</v>
-      </c>
-      <c r="M5" s="100" t="s">
-        <v>56</v>
       </c>
       <c r="N5" s="101" t="s">
         <v>11</v>
@@ -54547,37 +55553,37 @@
         <v>43910</v>
       </c>
       <c r="C6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J6" s="102">
         <v>1</v>
       </c>
       <c r="K6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M6" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N6" s="175">
         <f>SUM(C6:M6)</f>
@@ -54598,31 +55604,31 @@
         <v>1</v>
       </c>
       <c r="E7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F7" s="102">
         <v>4</v>
       </c>
       <c r="G7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J7" s="102">
         <v>1</v>
       </c>
       <c r="K7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M7" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N7" s="175">
         <f t="shared" ref="N7:N13" si="0">SUM(C7:M7)</f>
@@ -54790,7 +55796,7 @@
         <v>5</v>
       </c>
       <c r="I11" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J11" s="102">
         <v>9</v>
@@ -54925,7 +55931,7 @@
         <v>1</v>
       </c>
       <c r="I14" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J14" s="102">
         <v>5</v>
@@ -54967,10 +55973,10 @@
         <v>4</v>
       </c>
       <c r="H15" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I15" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J15" s="102">
         <v>10</v>
@@ -55011,10 +56017,10 @@
         <v>6</v>
       </c>
       <c r="H16" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I16" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J16" s="102">
         <v>6</v>
@@ -55026,7 +56032,7 @@
         <v>5</v>
       </c>
       <c r="M16" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N16" s="175">
         <f t="shared" ref="N16:N47" si="1">SUM(C16:M16)</f>
@@ -55056,10 +56062,10 @@
         <v>2</v>
       </c>
       <c r="H17" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I17" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J17" s="102">
         <v>1</v>
@@ -55102,10 +56108,10 @@
         <v>3</v>
       </c>
       <c r="H18" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I18" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J18" s="102">
         <v>3</v>
@@ -55114,10 +56120,10 @@
         <v>1</v>
       </c>
       <c r="L18" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M18" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N18" s="175">
         <f t="shared" si="1"/>
@@ -55151,7 +56157,7 @@
         <v>1</v>
       </c>
       <c r="I19" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J19" s="102">
         <v>1</v>
@@ -55194,22 +56200,22 @@
         <v>1</v>
       </c>
       <c r="H20" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I20" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J20" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K20" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L20" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M20" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N20" s="175">
         <f t="shared" si="1"/>
@@ -55231,22 +56237,22 @@
         <v>3</v>
       </c>
       <c r="E21" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F21" s="102">
         <v>3</v>
       </c>
       <c r="G21" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H21" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I21" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J21" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K21" s="102">
         <v>1</v>
@@ -55255,7 +56261,7 @@
         <v>1</v>
       </c>
       <c r="M21" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N21" s="175">
         <f t="shared" si="1"/>
@@ -55271,7 +56277,7 @@
         <v>44022</v>
       </c>
       <c r="C22" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D22" s="102">
         <v>3</v>
@@ -55280,10 +56286,10 @@
         <v>1</v>
       </c>
       <c r="F22" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G22" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H22" s="102">
         <v>1</v>
@@ -55298,10 +56304,10 @@
         <v>2</v>
       </c>
       <c r="L22" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M22" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N22" s="175">
         <f t="shared" si="1"/>
@@ -55317,37 +56323,37 @@
         <v>44029</v>
       </c>
       <c r="C23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F23" s="102">
         <v>1</v>
       </c>
       <c r="G23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J23" s="102">
         <v>1</v>
       </c>
       <c r="K23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M23" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N23" s="175">
         <f t="shared" si="1"/>
@@ -55363,13 +56369,13 @@
         <v>44036</v>
       </c>
       <c r="C24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D24" s="102">
         <v>2</v>
       </c>
       <c r="E24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F24" s="102">
         <v>2</v>
@@ -55378,22 +56384,22 @@
         <v>2</v>
       </c>
       <c r="H24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L24" s="102">
         <v>1</v>
       </c>
       <c r="M24" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N24" s="175">
         <f t="shared" si="1"/>
@@ -55410,37 +56416,37 @@
         <v>44043</v>
       </c>
       <c r="C25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E25" s="102">
         <v>1</v>
       </c>
       <c r="F25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M25" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N25" s="175">
         <f t="shared" si="1"/>
@@ -55457,7 +56463,7 @@
         <v>44050</v>
       </c>
       <c r="C26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D26" s="102">
         <v>1</v>
@@ -55469,22 +56475,22 @@
         <v>2</v>
       </c>
       <c r="G26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L26" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M26" s="204">
         <v>1</v>
@@ -55509,7 +56515,7 @@
         <v>1</v>
       </c>
       <c r="E27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F27" s="102">
         <v>1</v>
@@ -55518,22 +56524,22 @@
         <v>1</v>
       </c>
       <c r="H27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L27" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M27" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N27" s="175">
         <f t="shared" si="1"/>
@@ -55552,34 +56558,34 @@
         <v>1</v>
       </c>
       <c r="D28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E28" s="102">
         <v>2</v>
       </c>
       <c r="F28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K28" s="102">
         <v>3</v>
       </c>
       <c r="L28" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M28" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N28" s="175">
         <f t="shared" si="1"/>
@@ -55601,28 +56607,28 @@
         <v>1</v>
       </c>
       <c r="E29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="F29" s="102">
         <v>1</v>
       </c>
       <c r="G29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L29" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M29" s="204">
         <v>1</v>
@@ -55641,25 +56647,25 @@
         <v>44078</v>
       </c>
       <c r="C30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E30" s="102">
         <v>1</v>
       </c>
       <c r="F30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="G30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J30" s="102">
         <v>1</v>
@@ -55668,10 +56674,10 @@
         <v>1</v>
       </c>
       <c r="L30" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M30" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N30" s="175">
         <f t="shared" si="1"/>
@@ -55687,10 +56693,10 @@
         <v>44085</v>
       </c>
       <c r="C31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E31" s="102">
         <v>3</v>
@@ -55699,22 +56705,22 @@
         <v>2</v>
       </c>
       <c r="G31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K31" s="102">
         <v>1</v>
       </c>
       <c r="L31" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M31" s="204">
         <v>1</v>
@@ -55745,25 +56751,25 @@
         <v>2</v>
       </c>
       <c r="G32" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H32" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I32" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J32" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K32" s="102">
         <v>1</v>
       </c>
       <c r="L32" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M32" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N32" s="175">
         <f t="shared" si="1"/>
@@ -55779,10 +56785,10 @@
         <v>44099</v>
       </c>
       <c r="C33" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D33" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E33" s="102">
         <v>2</v>
@@ -55794,10 +56800,10 @@
         <v>2</v>
       </c>
       <c r="H33" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I33" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J33" s="102">
         <v>1</v>
@@ -55806,7 +56812,7 @@
         <v>1</v>
       </c>
       <c r="L33" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M33" s="204">
         <v>2</v>
@@ -55825,10 +56831,10 @@
         <v>44106</v>
       </c>
       <c r="C34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="D34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E34" s="102">
         <v>1</v>
@@ -55837,25 +56843,25 @@
         <v>1</v>
       </c>
       <c r="G34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="I34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L34" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M34" s="204" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="N34" s="175">
         <f t="shared" si="1"/>
@@ -55874,7 +56880,7 @@
         <v>2</v>
       </c>
       <c r="D35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E35" s="102">
         <v>4</v>
@@ -55883,22 +56889,22 @@
         <v>3</v>
       </c>
       <c r="G35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="H35" s="102">
         <v>1</v>
       </c>
       <c r="I35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="J35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="K35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="L35" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M35" s="204">
         <v>1</v>
@@ -55920,7 +56926,7 @@
         <v>1</v>
       </c>
       <c r="D36" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="E36" s="102">
         <v>3</v>
@@ -55944,7 +56950,7 @@
         <v>1</v>
       </c>
       <c r="L36" s="102" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="M36" s="204">
         <v>2</v>
@@ -56417,7 +57423,7 @@
     </row>
     <row r="47" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
       <c r="A47" s="13" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="B47" s="14">
         <v>44197</v>
@@ -56548,7 +57554,7 @@
         <v>9</v>
       </c>
       <c r="N49" s="175">
-        <f t="shared" ref="N49:N54" si="3">SUM(C49:M49)</f>
+        <f t="shared" ref="N49:N55" si="3">SUM(C49:M49)</f>
         <v>153</v>
       </c>
       <c r="O49" s="33"/>
@@ -56783,59 +57789,104 @@
       </c>
       <c r="O54" s="33"/>
     </row>
-    <row r="55" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
-      <c r="A55" s="167" t="s">
-        <v>120</v>
-      </c>
-      <c r="B55" s="166"/>
-      <c r="C55" s="165"/>
-      <c r="D55" s="165"/>
-      <c r="E55" s="165"/>
-      <c r="F55" s="165"/>
-      <c r="G55" s="165"/>
-      <c r="H55" s="165"/>
-      <c r="I55" s="165"/>
-      <c r="J55" s="165"/>
-      <c r="K55" s="165"/>
-      <c r="L55" s="165"/>
-      <c r="M55" s="165"/>
-      <c r="N55" s="169"/>
+    <row r="55" spans="1:15" s="256" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="13">
+        <v>8</v>
+      </c>
+      <c r="B55" s="14">
+        <v>44253</v>
+      </c>
+      <c r="C55" s="102">
+        <v>2</v>
+      </c>
+      <c r="D55" s="102">
+        <v>3</v>
+      </c>
+      <c r="E55" s="102">
+        <v>15</v>
+      </c>
+      <c r="F55" s="102">
+        <v>7</v>
+      </c>
+      <c r="G55" s="102">
+        <v>2</v>
+      </c>
+      <c r="H55" s="102">
+        <v>4</v>
+      </c>
+      <c r="I55" s="102">
+        <v>5</v>
+      </c>
+      <c r="J55" s="102">
+        <v>1</v>
+      </c>
+      <c r="K55" s="102">
+        <v>6</v>
+      </c>
+      <c r="L55" s="102">
+        <v>6</v>
+      </c>
+      <c r="M55" s="102">
+        <v>4</v>
+      </c>
+      <c r="N55" s="175">
+        <f t="shared" si="3"/>
+        <v>55</v>
+      </c>
       <c r="O55" s="33"/>
     </row>
-    <row r="56" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A56" s="42" t="s">
-        <v>36</v>
-      </c>
+    <row r="56" spans="1:15" s="40" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="167" t="s">
+        <v>117</v>
+      </c>
+      <c r="B56" s="166"/>
+      <c r="C56" s="165"/>
+      <c r="D56" s="165"/>
+      <c r="E56" s="165"/>
+      <c r="F56" s="165"/>
+      <c r="G56" s="165"/>
+      <c r="H56" s="165"/>
+      <c r="I56" s="165"/>
+      <c r="J56" s="165"/>
+      <c r="K56" s="165"/>
+      <c r="L56" s="165"/>
+      <c r="M56" s="165"/>
+      <c r="N56" s="169"/>
+      <c r="O56" s="33"/>
     </row>
     <row r="57" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A57" s="74" t="s">
-        <v>30</v>
+      <c r="A57" s="42" t="s">
+        <v>35</v>
       </c>
     </row>
     <row r="58" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A58" s="127" t="s">
-        <v>85</v>
-      </c>
-      <c r="B58" s="127"/>
-      <c r="C58" s="127"/>
-      <c r="D58" s="127"/>
-      <c r="E58" s="127"/>
-      <c r="F58" s="127"/>
-      <c r="G58" s="127"/>
-      <c r="H58" s="127"/>
-      <c r="I58" s="127"/>
-      <c r="J58" s="127"/>
-      <c r="K58" s="127"/>
-      <c r="L58" s="127"/>
-      <c r="M58" s="127"/>
-      <c r="N58" s="127"/>
+      <c r="A58" s="74" t="s">
+        <v>29</v>
+      </c>
     </row>
     <row r="59" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
-      <c r="A59" s="74" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="60" spans="1:15" x14ac:dyDescent="0.2"/>
+      <c r="A59" s="127" t="s">
+        <v>83</v>
+      </c>
+      <c r="B59" s="127"/>
+      <c r="C59" s="127"/>
+      <c r="D59" s="127"/>
+      <c r="E59" s="127"/>
+      <c r="F59" s="127"/>
+      <c r="G59" s="127"/>
+      <c r="H59" s="127"/>
+      <c r="I59" s="127"/>
+      <c r="J59" s="127"/>
+      <c r="K59" s="127"/>
+      <c r="L59" s="127"/>
+      <c r="M59" s="127"/>
+      <c r="N59" s="127"/>
+    </row>
+    <row r="60" spans="1:15" ht="14.25" x14ac:dyDescent="0.2">
+      <c r="A60" s="74" t="s">
+        <v>92</v>
+      </c>
+    </row>
     <row r="61" spans="1:15" x14ac:dyDescent="0.2"/>
     <row r="62" spans="1:15" x14ac:dyDescent="0.2"/>
     <row r="63" spans="1:15" x14ac:dyDescent="0.2"/>
@@ -56849,6 +57900,7 @@
     <row r="71" x14ac:dyDescent="0.2"/>
     <row r="72" x14ac:dyDescent="0.2"/>
     <row r="73" x14ac:dyDescent="0.2"/>
+    <row r="74" x14ac:dyDescent="0.2"/>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Contents!A1" display="Contents"/>
